--- a/puppeteer/니모_list.xlsx
+++ b/puppeteer/니모_list.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F161"/>
+  <dimension ref="A1:F321"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -424,10 +424,10 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>니모 조르 롱 와이드, 3.1cm, 레몬</v>
+        <v>니모 텐서 알파인 롱 와이드, 7.6cm, 오렌지</v>
       </c>
       <c r="B2">
-        <v>685</v>
+        <v>770</v>
       </c>
       <c r="C2" t="str">
         <v>big4</v>
@@ -439,15 +439,15 @@
         <v>니모</v>
       </c>
       <c r="F2" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_5250655/52506559325.20250115152901.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_5250507/52505071773.20250115124508.jpg?type=f640</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>니모 텐서 알파인 롱 와이드, 7.6cm, 오렌지</v>
+        <v>니모 스위치백 레귤러, 2cm, 오렌지</v>
       </c>
       <c r="B3">
-        <v>770</v>
+        <v>415</v>
       </c>
       <c r="C3" t="str">
         <v>big4</v>
@@ -459,15 +459,15 @@
         <v>니모</v>
       </c>
       <c r="F3" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_5250507/52505071773.20250115124508.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_5252105/52521059974.20250116140704.jpg?type=f640</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>니모 오라 롱 와이드, 3.1cm, 스토커다크</v>
+        <v>니모 조르 롱 와이드, 3.1cm, 레몬</v>
       </c>
       <c r="B4">
-        <v>820</v>
+        <v>685</v>
       </c>
       <c r="C4" t="str">
         <v>big4</v>
@@ -479,15 +479,15 @@
         <v>니모</v>
       </c>
       <c r="F4" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_5248223/52482232088.20250114143259.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_5250655/52506559325.20250115152901.jpg?type=f640</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>니모 롱보우 알파인 롱 와이드, 8cm, 필드사이퍼</v>
+        <v>니모 오라 롱 와이드, 3.1cm, 스토커다크</v>
       </c>
       <c r="B5">
-        <v>830</v>
+        <v>820</v>
       </c>
       <c r="C5" t="str">
         <v>big4</v>
@@ -499,15 +499,15 @@
         <v>니모</v>
       </c>
       <c r="F5" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_5252174/52521749869.20250116152154.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_5248223/52482232088.20250114143259.jpg?type=f640</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>니모 조르 레귤러 머미, 3cm, 레몬</v>
+        <v>니모 텐서 익스트림 컨디션 매트 롱 와이드, 9cm, 블랙</v>
       </c>
       <c r="B6">
-        <v>450</v>
+        <v>662</v>
       </c>
       <c r="C6" t="str">
         <v>big4</v>
@@ -519,15 +519,15 @@
         <v>니모</v>
       </c>
       <c r="F6" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_5250660/52506608755.20250115153211.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_5252157/52521578117.20250116150601.jpg?type=f640</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>니모 스위치백 레귤러, 2cm, 오렌지</v>
+        <v>니모 롱보우 알파인 롱 와이드, 8cm, 필드사이퍼</v>
       </c>
       <c r="B7">
-        <v>415</v>
+        <v>830</v>
       </c>
       <c r="C7" t="str">
         <v>big4</v>
@@ -539,15 +539,15 @@
         <v>니모</v>
       </c>
       <c r="F7" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_5252105/52521059974.20250116140704.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_5252174/52521749869.20250116152154.jpg?type=f640</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>니모 텐서 익스트림 컨디션 매트 롱 와이드, 9cm, 블랙</v>
+        <v>니모 조르 숏 머미, 3cm, 레몬</v>
       </c>
       <c r="B8">
-        <v>662</v>
+        <v>295</v>
       </c>
       <c r="C8" t="str">
         <v>big4</v>
@@ -559,15 +559,15 @@
         <v>니모</v>
       </c>
       <c r="F8" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_5252157/52521578117.20250116150601.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_5250672/52506724152.20250115153453.jpg?type=f640</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>니모 텐서 익스트림 컨디션 매트 레귤러 와이드, 9cm, 블랙</v>
+        <v>니모 조르 레귤러 머미, 3cm, 레몬</v>
       </c>
       <c r="B9">
-        <v>625</v>
+        <v>450</v>
       </c>
       <c r="C9" t="str">
         <v>big4</v>
@@ -579,15 +579,15 @@
         <v>니모</v>
       </c>
       <c r="F9" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_5252157/52521578087.20250116150208.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_5250660/52506608755.20250115153211.jpg?type=f640</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>니모 오라 미디엄 머미, 3cm, 스토커다크</v>
+        <v>니모 텐서 익스트림 컨디션 매트 레귤러 와이드, 9cm, 블랙</v>
       </c>
       <c r="B10">
-        <v>500</v>
+        <v>625</v>
       </c>
       <c r="C10" t="str">
         <v>big4</v>
@@ -599,15 +599,15 @@
         <v>니모</v>
       </c>
       <c r="F10" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_5248157/52481570562.20250114141446.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_5252157/52521578087.20250116150208.jpg?type=f640</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>니모 조르 숏 머미, 3cm, 레몬</v>
+        <v>니모 텐서 올시즌 에어매트 레귤러 와이드, 9cm, 실버</v>
       </c>
       <c r="B11">
-        <v>295</v>
+        <v>530</v>
       </c>
       <c r="C11" t="str">
         <v>big4</v>
@@ -619,7 +619,7 @@
         <v>니모</v>
       </c>
       <c r="F11" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_5250672/52506724152.20250115153453.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_5252235/52522359983.20250116170203.jpg?type=f640</v>
       </c>
     </row>
     <row r="12">
@@ -639,15 +639,15 @@
         <v>니모</v>
       </c>
       <c r="F12" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_5252194/52521948570.20250116153738.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_5252194/52521948570.20250116153738.jpg?type=f640</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>니모 텐서 올시즌 에어매트 레귤러 와이드, 9cm, 실버</v>
+        <v>니모 텐서 올시즌 에어매트 롱 와이드, 9cm, 실버</v>
       </c>
       <c r="B13">
-        <v>530</v>
+        <v>660</v>
       </c>
       <c r="C13" t="str">
         <v>big4</v>
@@ -659,15 +659,15 @@
         <v>니모</v>
       </c>
       <c r="F13" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_5252235/52522359983.20250116170203.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_5252236/52522360000.20250116170338.jpg?type=f640</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>니모 텐서 올시즌 에어매트 롱 와이드, 9cm, 실버</v>
+        <v>니모 오라 미디엄 머미, 3cm, 스토커다크</v>
       </c>
       <c r="B14">
-        <v>660</v>
+        <v>500</v>
       </c>
       <c r="C14" t="str">
         <v>big4</v>
@@ -679,7 +679,7 @@
         <v>니모</v>
       </c>
       <c r="F14" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_5252236/52522360000.20250116170338.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_5248157/52481570562.20250114141446.jpg?type=f640</v>
       </c>
     </row>
     <row r="15">
@@ -699,15 +699,15 @@
         <v>니모</v>
       </c>
       <c r="F15" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_5250507/52505071780.20250115124610.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_5250507/52505071780.20250115124610.jpg?type=f640</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>니모 조르 미디엄 머미, 3cm, 레몬</v>
+        <v>니모 플라이어 롱 와이드, 5cm, 어비스</v>
       </c>
       <c r="B16">
-        <v>415</v>
+        <v>810</v>
       </c>
       <c r="C16" t="str">
         <v>big4</v>
@@ -719,15 +719,15 @@
         <v>니모</v>
       </c>
       <c r="F16" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_5250673/52506730966.20250115153654.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_5252130/52521306200.20250116143832.jpg?type=f640</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>니모 텐서 올시즌 에어매트 레귤러 머미, 9cm, 실버</v>
+        <v>니모 조르 미디엄 머미, 3cm, 레몬</v>
       </c>
       <c r="B17">
-        <v>480</v>
+        <v>415</v>
       </c>
       <c r="C17" t="str">
         <v>big4</v>
@@ -739,7 +739,7 @@
         <v>니모</v>
       </c>
       <c r="F17" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_5252235/52522359989.20250116170248.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_5250673/52506730966.20250115153654.jpg?type=f640</v>
       </c>
     </row>
     <row r="18">
@@ -759,15 +759,15 @@
         <v>니모</v>
       </c>
       <c r="F18" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_5252157/52521578069.20250116150645.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_5252157/52521578069.20250116150645.jpg?type=f640</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>니모 롱보우 알파인 레귤러 머미, 8cm, 필드사이퍼</v>
+        <v>니모 스위치백 숏, 2cm, 오렌지</v>
       </c>
       <c r="B19">
-        <v>515</v>
+        <v>300</v>
       </c>
       <c r="C19" t="str">
         <v>big4</v>
@@ -779,15 +779,15 @@
         <v>니모</v>
       </c>
       <c r="F19" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_5252177/52521770492.20250116152304.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_5252105/52521059959.20250116140532.jpg?type=f640</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>니모 텐서 익스트림 컨디션 매트 레귤러, 9cm, 블랙</v>
+        <v>니모 롱보우 올시즌 에어매트 레귤러 머미, 9cm, 필드사이퍼</v>
       </c>
       <c r="B20">
-        <v>505</v>
+        <v>400</v>
       </c>
       <c r="C20" t="str">
         <v>big4</v>
@@ -799,15 +799,15 @@
         <v>니모</v>
       </c>
       <c r="F20" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_5252157/52521578058.20250116145715.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_5252194/52521948558.20250116153646.jpg?type=f640</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>니모 치퍼 폼 시트 방석매트</v>
-      </c>
-      <c r="B21" t="str">
-        <v/>
+        <v>니모 오라 레귤러 머미, 3cm, 스토커다크</v>
+      </c>
+      <c r="B21">
+        <v>530</v>
       </c>
       <c r="C21" t="str">
         <v>big4</v>
@@ -819,15 +819,15 @@
         <v>니모</v>
       </c>
       <c r="F21" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_3934371/39343710618.20230412160340.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_5248254/52482542647.20250114143845.jpg?type=f640</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>니모 플라이어 롱 와이드, 5cm, 어비스</v>
+        <v>니모 텐서 올시즌 에어매트 레귤러 머미, 9cm, 실버</v>
       </c>
       <c r="B22">
-        <v>810</v>
+        <v>480</v>
       </c>
       <c r="C22" t="str">
         <v>big4</v>
@@ -839,15 +839,15 @@
         <v>니모</v>
       </c>
       <c r="F22" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_5252130/52521306200.20250116143832.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_5252235/52522359989.20250116170248.jpg?type=f640</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>니모 오라 숏 머미, 3cm, 스토커다크</v>
-      </c>
-      <c r="B23">
-        <v>375</v>
+        <v>니모 치퍼 폼 시트 방석매트</v>
+      </c>
+      <c r="B23" t="str">
+        <v/>
       </c>
       <c r="C23" t="str">
         <v>big4</v>
@@ -859,15 +859,15 @@
         <v>니모</v>
       </c>
       <c r="F23" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_5248254/52482544813.20250114144056.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_3934371/39343710618.20230412160340.jpg?type=f640</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>니모 플라이어 레귤러 와이드, 5cm, 어비스</v>
+        <v>니모 롱보우 알파인 레귤러 머미, 8cm, 필드사이퍼</v>
       </c>
       <c r="B24">
-        <v>770</v>
+        <v>515</v>
       </c>
       <c r="C24" t="str">
         <v>big4</v>
@@ -879,15 +879,15 @@
         <v>니모</v>
       </c>
       <c r="F24" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_5252143/52521433593.20250116143808.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_5252177/52521770492.20250116152304.jpg?type=f640</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>니모 롱보우 올시즌 에어매트 레귤러 머미, 9cm, 필드사이퍼</v>
+        <v>니모 텐서 익스트림 컨디션 매트 레귤러, 9cm, 블랙</v>
       </c>
       <c r="B25">
-        <v>400</v>
+        <v>505</v>
       </c>
       <c r="C25" t="str">
         <v>big4</v>
@@ -899,15 +899,15 @@
         <v>니모</v>
       </c>
       <c r="F25" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_5252194/52521948558.20250116153646.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_5252157/52521578058.20250116145715.jpg?type=f640</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>니모 스위치백 숏, 2cm, 오렌지</v>
+        <v>니모 오라 숏 머미, 3cm, 스토커다크</v>
       </c>
       <c r="B26">
-        <v>300</v>
+        <v>375</v>
       </c>
       <c r="C26" t="str">
         <v>big4</v>
@@ -919,15 +919,15 @@
         <v>니모</v>
       </c>
       <c r="F26" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_5252105/52521059959.20250116140532.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_5248254/52482544813.20250114144056.jpg?type=f640</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>니모 오라 레귤러 머미, 3cm, 스토커다크</v>
+        <v>니모 오라 레귤러 와이드, 3cm, 스토커다크</v>
       </c>
       <c r="B27">
-        <v>530</v>
+        <v>710</v>
       </c>
       <c r="C27" t="str">
         <v>big4</v>
@@ -939,15 +939,15 @@
         <v>니모</v>
       </c>
       <c r="F27" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_5248254/52482542647.20250114143845.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_5248236/52482363369.20250114143603.jpg?type=f640</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>니모 오라 레귤러 와이드, 3cm, 스토커다크</v>
+        <v>니모 플라이어 레귤러 와이드, 5cm, 어비스</v>
       </c>
       <c r="B28">
-        <v>710</v>
+        <v>770</v>
       </c>
       <c r="C28" t="str">
         <v>big4</v>
@@ -959,15 +959,15 @@
         <v>니모</v>
       </c>
       <c r="F28" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_5248236/52482363369.20250114143603.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_5252143/52521433593.20250116143808.jpg?type=f640</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>니모 퀘이사 3D 인슐레이티드 롱 와이드 블루버드</v>
+        <v>니모 텐서 올시즌 에어매트 레귤러, 9cm, 실버</v>
       </c>
       <c r="B29">
-        <v>935</v>
+        <v>520</v>
       </c>
       <c r="C29" t="str">
         <v>big4</v>
@@ -979,27 +979,27 @@
         <v>니모</v>
       </c>
       <c r="F29" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_5309696/53096965272.20250219140148.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_5252235/52522359963.20250116170038.jpg?type=f640</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>니모 스타게이즈 럭셔리 체어</v>
+        <v>니모 퀘이사 3D 인슐레이티드 롱 와이드 블루버드</v>
       </c>
       <c r="B30">
-        <v>3060</v>
+        <v>935</v>
       </c>
       <c r="C30" t="str">
-        <v>furniture</v>
+        <v>big4</v>
       </c>
       <c r="D30" t="str">
-        <v>chair</v>
+        <v>mat</v>
       </c>
       <c r="E30" t="str">
         <v>니모</v>
       </c>
       <c r="F30" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_1401672/14016724606.20210407163217.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_5309696/53096965272.20250219140148.jpg?type=f640</v>
       </c>
     </row>
     <row r="31">
@@ -1019,55 +1019,55 @@
         <v>니모</v>
       </c>
       <c r="F31" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_5263073/52630731003.20250123160630.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_5263073/52630731003.20250123160630.jpg?type=f640</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>니모 문라이트 리클라이닝 체어</v>
+        <v>니모 다이거 오스모 텐트 2인용 버치버드 굿나잇그레이</v>
       </c>
       <c r="B32">
-        <v>850</v>
+        <v>1700</v>
       </c>
       <c r="C32" t="str">
-        <v>furniture</v>
+        <v>big4</v>
       </c>
       <c r="D32" t="str">
-        <v>chair</v>
+        <v>tent</v>
       </c>
       <c r="E32" t="str">
         <v>니모</v>
       </c>
       <c r="F32" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_3509265/35092655618.20221006183728.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_5279769/52797697444.20250204101030.jpg?type=f640</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>니모 문라이트 엘리트 캠핑의자</v>
+        <v>니모 오로라 2P 풋프린트 2인용</v>
       </c>
       <c r="B33">
-        <v>526</v>
+        <v>2580</v>
       </c>
       <c r="C33" t="str">
-        <v>furniture</v>
+        <v>big4</v>
       </c>
       <c r="D33" t="str">
-        <v>chair</v>
+        <v>tent</v>
       </c>
       <c r="E33" t="str">
         <v>니모</v>
       </c>
       <c r="F33" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_4591658/45916588619.20240220163720.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_2346404/23464048491.20211008103449.jpg?type=f640</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>니모 다이거 오스모 텐트 2인용 버치버드 굿나잇그레이</v>
+        <v>니모 드라곤플라이 바이크팩 텐트 2인용 보레알</v>
       </c>
       <c r="B34">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="C34" t="str">
         <v>big4</v>
@@ -1079,35 +1079,35 @@
         <v>니모</v>
       </c>
       <c r="F34" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_5279769/52797697444.20250204101030.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_5293518/52935182409.20250211100923.jpg?type=f640</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>니모 아톰 2P 풋프린트</v>
-      </c>
-      <c r="B35" t="str">
-        <v/>
+        <v>니모 호넷 엘리트 오스모 2P 2인용</v>
+      </c>
+      <c r="B35">
+        <v>935</v>
       </c>
       <c r="C35" t="str">
-        <v>etc</v>
+        <v>big4</v>
       </c>
       <c r="D35" t="str">
-        <v>etc</v>
+        <v>tent</v>
       </c>
       <c r="E35" t="str">
         <v>니모</v>
       </c>
       <c r="F35" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_3349038/33490386851.20240201032052.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_4143180/41431804621.20230726144546.jpg?type=f640</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>니모 오로라 2P 풋프린트 2인용</v>
+        <v>니모 트래커 텐트 1인용 필드사이퍼</v>
       </c>
       <c r="B36">
-        <v>2580</v>
+        <v>1150</v>
       </c>
       <c r="C36" t="str">
         <v>big4</v>
@@ -1119,55 +1119,55 @@
         <v>니모</v>
       </c>
       <c r="F36" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_2346404/23464048491.20211008103449.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_5312424/53124240759.20250220160225.jpg?type=f640</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>니모 문랜더</v>
+        <v>니모 호넷 엘리트 오스모 1P 1인용 알루미늄스토미나이트</v>
       </c>
       <c r="B37">
-        <v>2200</v>
+        <v>812</v>
       </c>
       <c r="C37" t="str">
-        <v>furniture</v>
+        <v>big4</v>
       </c>
       <c r="D37" t="str">
-        <v>table</v>
+        <v>tent</v>
       </c>
       <c r="E37" t="str">
         <v>니모</v>
       </c>
       <c r="F37" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_4141051/41410515618.20230725153055.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_5314591/53145917345.20250221154619.jpg?type=f640</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>니모 BICTORY 피크닉 블랭킷 캠핑매트 XXL</v>
+        <v>니모 뉴 호넷 엘리트 2P 2인용</v>
       </c>
       <c r="B38">
-        <v>2400</v>
+        <v>779</v>
       </c>
       <c r="C38" t="str">
         <v>big4</v>
       </c>
       <c r="D38" t="str">
-        <v>mat</v>
+        <v>tent</v>
       </c>
       <c r="E38" t="str">
         <v>니모</v>
       </c>
       <c r="F38" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_4591592/45915924620.20240220160543.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_4143277/41432770620.20230726154456.jpg?type=f640</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>니모 드라곤플라이 바이크팩 텐트 2인용 보레알</v>
+        <v>니모 드라곤플라이 오스모 텐트 2인용 + 풋프린트 버치버드 굿나잇그레이</v>
       </c>
       <c r="B39">
-        <v>1600</v>
+        <v>1200</v>
       </c>
       <c r="C39" t="str">
         <v>big4</v>
@@ -1179,55 +1179,55 @@
         <v>니모</v>
       </c>
       <c r="F39" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_5293518/52935182409.20250211100923.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_5279946/52799467875.20250204144449.jpg?type=f640</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>니모 리프 15 하이드로포빅 다운 레귤러 침낭</v>
+        <v>니모 드라곤플라이 오스모 텐트 2인용 버치버드 굿나잇그레이</v>
       </c>
       <c r="B40">
-        <v>1080</v>
+        <v>1200</v>
       </c>
       <c r="C40" t="str">
         <v>big4</v>
       </c>
       <c r="D40" t="str">
-        <v>sleeping_bag</v>
+        <v>tent</v>
       </c>
       <c r="E40" t="str">
         <v>니모</v>
       </c>
       <c r="F40" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_3167887/31678879093.20220408194657.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_5279992/52799926416.20250204145001.jpg?type=f640</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>니모 소닉 20 레귤러</v>
+        <v>니모 헬리오폴리스 샤워텐트 모나크</v>
       </c>
       <c r="B41">
-        <v>1590</v>
+        <v>3510</v>
       </c>
       <c r="C41" t="str">
         <v>big4</v>
       </c>
       <c r="D41" t="str">
-        <v>sleeping_bag</v>
+        <v>tent</v>
       </c>
       <c r="E41" t="str">
         <v>니모</v>
       </c>
       <c r="F41" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_2415013/24150132524.20200914155209.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_5319228/53192281888.20250224174136.jpg?type=f640</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>니모 호넷 엘리트 오스모 2P 2인용</v>
+        <v>니모 드라곤플라이 오스모 바이크팩 2P 2인용 보레알</v>
       </c>
       <c r="B42">
-        <v>935</v>
+        <v>1800</v>
       </c>
       <c r="C42" t="str">
         <v>big4</v>
@@ -1239,75 +1239,75 @@
         <v>니모</v>
       </c>
       <c r="F42" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_4143180/41431804621.20230726144546.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_5278180/52781806002.20250203163937.jpg?type=f640</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>니모 니모 다이거 오스모 3P 백패킹텐트</v>
-      </c>
-      <c r="B43" t="str">
-        <v/>
+        <v>니모 뉴 호넷 스톰 2P 2인용텐트</v>
+      </c>
+      <c r="B43">
+        <v>1130</v>
       </c>
       <c r="C43" t="str">
-        <v>etc</v>
+        <v>big4</v>
       </c>
       <c r="D43" t="str">
-        <v>etc</v>
+        <v>tent</v>
       </c>
       <c r="E43" t="str">
         <v>니모</v>
       </c>
       <c r="F43" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_4603799/46037993255.20240702002209.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_2063282/20632821754.20190815141103.jpg?type=f640</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>니모 소닉 20 롱</v>
+        <v>니모 스위치 2P 텐트 2인용</v>
       </c>
       <c r="B44">
-        <v>1650</v>
+        <v>3770</v>
       </c>
       <c r="C44" t="str">
         <v>big4</v>
       </c>
       <c r="D44" t="str">
-        <v>sleeping_bag</v>
+        <v>tent</v>
       </c>
       <c r="E44" t="str">
         <v>니모</v>
       </c>
       <c r="F44" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_2415046/24150468525.20200914154137.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_4889327/48893274619.20240703102858.jpg?type=f640</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>니모 가이라인 키트</v>
+        <v>니모 메이플라이 오스모 2P 텐트 2인용</v>
       </c>
       <c r="B45" t="str">
         <v/>
       </c>
       <c r="C45" t="str">
-        <v>etc</v>
+        <v>big4</v>
       </c>
       <c r="D45" t="str">
-        <v>etc</v>
+        <v>tent</v>
       </c>
       <c r="E45" t="str">
         <v>니모</v>
       </c>
       <c r="F45" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_3749440/37494405606.20230414023220.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_4631100/46311001622.20240311104347.jpg?type=f640</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>니모 스위치 2P 텐트 2인용</v>
+        <v>니모 프론트 포치 2P 텐트 2인용</v>
       </c>
       <c r="B46">
-        <v>3770</v>
+        <v>3800</v>
       </c>
       <c r="C46" t="str">
         <v>big4</v>
@@ -1319,52 +1319,52 @@
         <v>니모</v>
       </c>
       <c r="F46" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_4889327/48893274619.20240703102858.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_1104430/11044300629.20170217164239.jpg?type=f640</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>니모 NEMO 필로 럭셔리</v>
-      </c>
-      <c r="B47" t="str">
-        <v/>
+        <v>니모 오로라 릿지 3P</v>
+      </c>
+      <c r="B47">
+        <v>2800</v>
       </c>
       <c r="C47" t="str">
-        <v>etc</v>
+        <v>big4</v>
       </c>
       <c r="D47" t="str">
-        <v>etc</v>
+        <v>tent</v>
       </c>
       <c r="E47" t="str">
         <v>니모</v>
       </c>
       <c r="F47" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_5054872/50548729635.20240930051344.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_4143370/41433707618.20230726162211.jpg?type=f640</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>니모 트래커 텐트 1인용 필드사이퍼</v>
-      </c>
-      <c r="B48">
-        <v>1150</v>
+        <v>니모 보텍스 펌프 색 에어매트펌프</v>
+      </c>
+      <c r="B48" t="str">
+        <v/>
       </c>
       <c r="C48" t="str">
-        <v>big4</v>
+        <v>etc</v>
       </c>
       <c r="D48" t="str">
-        <v>tent</v>
+        <v>etc</v>
       </c>
       <c r="E48" t="str">
         <v>니모</v>
       </c>
       <c r="F48" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_5312424/53124240759.20250220160225.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_1876207/18762073603.20250129212938.jpg?type=f640</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>니모 필로 - 휴대용 에어베개 메모리폼 쿠션 내장</v>
+        <v>니모 NEMO 필로 럭셔리</v>
       </c>
       <c r="B49" t="str">
         <v/>
@@ -1379,52 +1379,52 @@
         <v>니모</v>
       </c>
       <c r="F49" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_4551217/45512178850.20240822091353.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_5054872/50548729635.20240930051344.jpg?type=f640</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>NEMO 니모 타프 폴 L 203 길이조절용 - 쉘터및 타프 전용폴</v>
-      </c>
-      <c r="B50" t="str">
-        <v/>
+        <v>니모 다이거 오스모 텐트 3인용 버치버드 굿나잇그레이</v>
+      </c>
+      <c r="B50">
+        <v>2100</v>
       </c>
       <c r="C50" t="str">
-        <v>etc</v>
+        <v>big4</v>
       </c>
       <c r="D50" t="str">
-        <v>etc</v>
+        <v>tent</v>
       </c>
       <c r="E50" t="str">
         <v>니모</v>
       </c>
       <c r="F50" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_3545727/35457277911.20221026123609.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_5320846/53208467834.20250225101537.jpg?type=f640</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>니모 아스트로 롱 와이드 에어매트</v>
-      </c>
-      <c r="B51">
-        <v>930</v>
+        <v>니모 필로 - 휴대용 에어베개 메모리폼 쿠션 내장</v>
+      </c>
+      <c r="B51" t="str">
+        <v/>
       </c>
       <c r="C51" t="str">
-        <v>big4</v>
+        <v>etc</v>
       </c>
       <c r="D51" t="str">
-        <v>mat</v>
+        <v>etc</v>
       </c>
       <c r="E51" t="str">
         <v>니모</v>
       </c>
       <c r="F51" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_5129682/51296822625.20241108154727.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_4551217/45512178850.20240822091353.jpg?type=f640</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>니모 맬더 해머</v>
+        <v>니모 스위치백 전용케이스 - 수납파우치</v>
       </c>
       <c r="B52" t="str">
         <v/>
@@ -1439,92 +1439,92 @@
         <v>니모</v>
       </c>
       <c r="F52" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_3864017/38640179892.20241026101014.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_4983191/49831917971.20240817183413.jpg?type=f640</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>니모 보텍스 펌프 색 에어매트펌프</v>
-      </c>
-      <c r="B53" t="str">
-        <v/>
+        <v>니모 트래커 텐트 2인용</v>
+      </c>
+      <c r="B53">
+        <v>1370</v>
       </c>
       <c r="C53" t="str">
-        <v>etc</v>
+        <v>big4</v>
       </c>
       <c r="D53" t="str">
-        <v>etc</v>
+        <v>tent</v>
       </c>
       <c r="E53" t="str">
         <v>니모</v>
       </c>
       <c r="F53" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_1876207/18762073603.20250129212938.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_3520710/35207107620.20221013134116.jpg?type=f640</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>니모 23년 아스트로 인슐레이티드 레귤러 캠핑매트</v>
+        <v>니모 파이어플라이 텐트 2인용</v>
       </c>
       <c r="B54">
-        <v>690</v>
+        <v>1520</v>
       </c>
       <c r="C54" t="str">
         <v>big4</v>
       </c>
       <c r="D54" t="str">
-        <v>mat</v>
+        <v>tent</v>
       </c>
       <c r="E54" t="str">
         <v>니모</v>
       </c>
       <c r="F54" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_4316737/43167374619.20231012112858.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_4647901/46479010621.20240318113029.jpg?type=f640</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>니모 레이저™ 에어 25L 캠핑매트</v>
+        <v>니모 필드컬렉션 트래커 오스모 텐트 1인용</v>
       </c>
       <c r="B55">
-        <v>900</v>
+        <v>1200</v>
       </c>
       <c r="C55" t="str">
         <v>big4</v>
       </c>
       <c r="D55" t="str">
-        <v>mat</v>
+        <v>tent</v>
       </c>
       <c r="E55" t="str">
         <v>니모</v>
       </c>
       <c r="F55" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_1015041/10150414441.20160803181815.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_5129681/51296815619.20241108162314.jpg?type=f640</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>니모 BICTORY 피크닉 블랭킷 캠핑매트 XL</v>
-      </c>
-      <c r="B56" t="str">
-        <v/>
+        <v>니모 아톰 1P 텐트 1인용</v>
+      </c>
+      <c r="B56">
+        <v>1500</v>
       </c>
       <c r="C56" t="str">
         <v>big4</v>
       </c>
       <c r="D56" t="str">
-        <v>mat</v>
+        <v>tent</v>
       </c>
       <c r="E56" t="str">
         <v>니모</v>
       </c>
       <c r="F56" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_4591593/45915932619.20240220161153.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_2641761/26417611526.20210319114755.jpg?type=f640</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>니모 스윕 스테이크 6개 세트 텐트펙 경량펙</v>
+        <v>니모 헬리오 프레셔 샤워</v>
       </c>
       <c r="B57" t="str">
         <v/>
@@ -1539,12 +1539,12 @@
         <v>니모</v>
       </c>
       <c r="F57" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_5077613/50776137746.20241013012132.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_3958226/39582262129.20240909112229.jpg?type=f640</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>니모 에어핀 스테이크 4개 세트</v>
+        <v>니모 NEMO 필로 럭셔리</v>
       </c>
       <c r="B58" t="str">
         <v/>
@@ -1559,72 +1559,72 @@
         <v>니모</v>
       </c>
       <c r="F58" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_3810177/38101774607.20230219192647.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_3731927/37319277421.20230119214037.jpg?type=f640</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>니모 제블린 스테이크 텐트 타프펙 32934743</v>
-      </c>
-      <c r="B59" t="str">
-        <v/>
+        <v>니모 다이거 오스모 3인용</v>
+      </c>
+      <c r="B59">
+        <v>2100</v>
       </c>
       <c r="C59" t="str">
-        <v>etc</v>
+        <v>big4</v>
       </c>
       <c r="D59" t="str">
-        <v>etc</v>
+        <v>tent</v>
       </c>
       <c r="E59" t="str">
         <v>니모</v>
       </c>
       <c r="F59" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_3872800/38728003838.20230317221203.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_4647900/46479009620.20240318111658.jpg?type=f640</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>니모 에어핀 스테이크 4개 세트 텐트펙 경량펙 29589579</v>
-      </c>
-      <c r="B60" t="str">
-        <v/>
+        <v>니모 아스트로 롱 와이드 에어매트</v>
+      </c>
+      <c r="B60">
+        <v>930</v>
       </c>
       <c r="C60" t="str">
-        <v>etc</v>
+        <v>big4</v>
       </c>
       <c r="D60" t="str">
-        <v>etc</v>
+        <v>mat</v>
       </c>
       <c r="E60" t="str">
         <v>니모</v>
       </c>
       <c r="F60" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_2580214/25802148418.20240305004427.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_5129682/51296822625.20241108154727.jpg?type=f640</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>니모 에어핀 스테이크 2개 1세트 - 경량펙 텐트펙</v>
-      </c>
-      <c r="B61" t="str">
-        <v/>
+        <v>니모 블레이즈 텐트 2인용</v>
+      </c>
+      <c r="B61">
+        <v>1100</v>
       </c>
       <c r="C61" t="str">
-        <v>etc</v>
+        <v>big4</v>
       </c>
       <c r="D61" t="str">
-        <v>etc</v>
+        <v>tent</v>
       </c>
       <c r="E61" t="str">
         <v>니모</v>
       </c>
       <c r="F61" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_3568827/35688272859.20221107112029.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_8861277/8861277681.20191231175310.jpg?type=f640</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>니모 NEMO Aurora 오로라 Highrise 6P 풋프린트</v>
+        <v>NEMO 니모 헬리오 프레셔 샤워 - 풋 펌핑 휴대용 샤워기</v>
       </c>
       <c r="B62" t="str">
         <v/>
@@ -1639,292 +1639,292 @@
         <v>니모</v>
       </c>
       <c r="F62" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_4934064/49340643358.20240723233118.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_3926866/39268662692.20230409142509.jpg?type=f640</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>니모 NEMO Aurora 오로라 Highrise 4P 풋프린트</v>
-      </c>
-      <c r="B63" t="str">
-        <v/>
+        <v>니모 23년 아스트로 인슐레이티드 레귤러 캠핑매트</v>
+      </c>
+      <c r="B63">
+        <v>690</v>
       </c>
       <c r="C63" t="str">
-        <v>etc</v>
+        <v>big4</v>
       </c>
       <c r="D63" t="str">
-        <v>etc</v>
+        <v>mat</v>
       </c>
       <c r="E63" t="str">
         <v>니모</v>
       </c>
       <c r="F63" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_3855182/38551829055.20230310210145.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_4316737/43167374619.20231012112858.jpg?type=f640</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>니모 호넷 엘리트 오스모 2P 백패킹텐트</v>
-      </c>
-      <c r="B64" t="str">
-        <v/>
+        <v>니모 레이저™ 에어 25L 캠핑매트</v>
+      </c>
+      <c r="B64">
+        <v>900</v>
       </c>
       <c r="C64" t="str">
-        <v>etc</v>
+        <v>big4</v>
       </c>
       <c r="D64" t="str">
-        <v>etc</v>
+        <v>mat</v>
       </c>
       <c r="E64" t="str">
         <v>니모</v>
       </c>
       <c r="F64" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_4704352/47043526767.20240413193029.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_1015041/10150414441.20160803181815.jpg?type=f640</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>니모 NEMO 드래곤fly 3P 풋프린트</v>
-      </c>
-      <c r="B65" t="str">
-        <v/>
+        <v>니모 BICTORY 피크닉 블랭킷 캠핑매트 XXL</v>
+      </c>
+      <c r="B65">
+        <v>2400</v>
       </c>
       <c r="C65" t="str">
-        <v>etc</v>
+        <v>big4</v>
       </c>
       <c r="D65" t="str">
-        <v>etc</v>
+        <v>mat</v>
       </c>
       <c r="E65" t="str">
         <v>니모</v>
       </c>
       <c r="F65" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_5011315/50113156921.20240902205439.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_4591592/45915924620.20240220160543.jpg?type=f640</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>니모 NEMO 타프 폴 길이조정용 L 203cm-251cm</v>
+        <v>니모 BICTORY 피크닉 블랭킷 캠핑매트 XL</v>
       </c>
       <c r="B66" t="str">
         <v/>
       </c>
       <c r="C66" t="str">
-        <v>etc</v>
+        <v>big4</v>
       </c>
       <c r="D66" t="str">
-        <v>etc</v>
+        <v>mat</v>
       </c>
       <c r="E66" t="str">
         <v>니모</v>
       </c>
       <c r="F66" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_3570522/35705222996.20221108093219.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_4591593/45915932619.20240220161153.jpg?type=f640</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>니모 스윕 스테이크 6개 1세트 - 경량펙 텐트펙</v>
-      </c>
-      <c r="B67" t="str">
-        <v/>
+        <v>니모 x 필드 컬렉션 코디악 텐트 2인용</v>
+      </c>
+      <c r="B67">
+        <v>1810</v>
       </c>
       <c r="C67" t="str">
-        <v>etc</v>
+        <v>big4</v>
       </c>
       <c r="D67" t="str">
-        <v>etc</v>
+        <v>tent</v>
       </c>
       <c r="E67" t="str">
         <v>니모</v>
       </c>
       <c r="F67" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_3622121/36221211978.20221201120623.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_3835959/38359598619.20230302104007.jpg?type=f640</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>니모 NIMO 맬더해머 토르해머 파운딩해머 텐트망치</v>
-      </c>
-      <c r="B68" t="str">
-        <v/>
+        <v>니모 드라곤플라이 텐트 2인용</v>
+      </c>
+      <c r="B68">
+        <v>1410</v>
       </c>
       <c r="C68" t="str">
-        <v>etc</v>
+        <v>big4</v>
       </c>
       <c r="D68" t="str">
-        <v>etc</v>
+        <v>tent</v>
       </c>
       <c r="E68" t="str">
         <v>니모</v>
       </c>
       <c r="F68" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_4432797/44327975865.20231130074715.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_2123436/21234366529.20211122112654.jpg?type=f640</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>니모 맬더 해머 캠핑망치 파운딩해머 30875378</v>
-      </c>
-      <c r="B69" t="str">
-        <v/>
+        <v>니모 쿠나이 2P 텐트</v>
+      </c>
+      <c r="B69">
+        <v>1960</v>
       </c>
       <c r="C69" t="str">
-        <v>etc</v>
+        <v>big4</v>
       </c>
       <c r="D69" t="str">
-        <v>etc</v>
+        <v>tent</v>
       </c>
       <c r="E69" t="str">
         <v>니모</v>
       </c>
       <c r="F69" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_4037851/40378517315.20230602202326.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_2346388/23463889493.20210917170359.jpg?type=f640</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>니모 NEMO 잠자리 2P 발자국</v>
-      </c>
-      <c r="B70" t="str">
-        <v/>
+        <v>니모 뉴 다이거 2P 텐트</v>
+      </c>
+      <c r="B70">
+        <v>1750</v>
       </c>
       <c r="C70" t="str">
-        <v>etc</v>
+        <v>big4</v>
       </c>
       <c r="D70" t="str">
-        <v>etc</v>
+        <v>tent</v>
       </c>
       <c r="E70" t="str">
         <v>니모</v>
       </c>
       <c r="F70" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_4295336/42953367443.20230930203828.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_2346239/23462390492.20211001171532.jpg?type=f640</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>니모 NEMO Mayfly OSMO 3P 공간</v>
-      </c>
-      <c r="B71" t="str">
-        <v/>
+        <v>니모 뉴 다이거 텐트 3인용</v>
+      </c>
+      <c r="B71">
+        <v>1700</v>
       </c>
       <c r="C71" t="str">
-        <v>etc</v>
+        <v>big4</v>
       </c>
       <c r="D71" t="str">
-        <v>etc</v>
+        <v>tent</v>
       </c>
       <c r="E71" t="str">
         <v>니모</v>
       </c>
       <c r="F71" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_4786589/47865890154.20240520220713.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_4776359/47763593618.20240516144928.jpg?type=f640</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>니모 에어핀 스테이크 정식수입 초경량 다운 팩</v>
-      </c>
-      <c r="B72" t="str">
-        <v/>
+        <v>니모 테트라 포드 텐트 1인용</v>
+      </c>
+      <c r="B72">
+        <v>778</v>
       </c>
       <c r="C72" t="str">
-        <v>etc</v>
+        <v>big4</v>
       </c>
       <c r="D72" t="str">
-        <v>etc</v>
+        <v>tent</v>
       </c>
       <c r="E72" t="str">
         <v>니모</v>
       </c>
       <c r="F72" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_4123466/41234660051.20230830080346.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_3269694/32696945620.20220601163755.jpg?type=f640</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>니모 NEMO 맬더 해머</v>
-      </c>
-      <c r="B73" t="str">
-        <v/>
+        <v>니모 아톰 그린 텐트 2인용</v>
+      </c>
+      <c r="B73">
+        <v>1900</v>
       </c>
       <c r="C73" t="str">
-        <v>etc</v>
+        <v>big4</v>
       </c>
       <c r="D73" t="str">
-        <v>etc</v>
+        <v>tent</v>
       </c>
       <c r="E73" t="str">
         <v>니모</v>
       </c>
       <c r="F73" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_3874275/38742755582.20230318132711.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_2447943/24479431525.20201016161325.jpg?type=f640</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>니모 맬더 해머 파운딩 해머</v>
-      </c>
-      <c r="B74" t="str">
-        <v/>
+        <v>니모 스파이크 2P 텐트 2인용</v>
+      </c>
+      <c r="B74">
+        <v>890</v>
       </c>
       <c r="C74" t="str">
-        <v>etc</v>
+        <v>big4</v>
       </c>
       <c r="D74" t="str">
-        <v>etc</v>
+        <v>tent</v>
       </c>
       <c r="E74" t="str">
         <v>니모</v>
       </c>
       <c r="F74" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_5271767/52717670457.20250131020910.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_1104429/11044293962.20170217134827.jpg?type=f640</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>니모 NEMO NMACTPEX 조절 가능한 타프 폴 연장</v>
-      </c>
-      <c r="B75" t="str">
-        <v/>
+        <v>니모 호넷 엘리트 오스모 2P + 풋 프린트 세트 2인용</v>
+      </c>
+      <c r="B75">
+        <v>935</v>
       </c>
       <c r="C75" t="str">
-        <v>etc</v>
+        <v>big4</v>
       </c>
       <c r="D75" t="str">
-        <v>etc</v>
+        <v>tent</v>
       </c>
       <c r="E75" t="str">
         <v>니모</v>
       </c>
       <c r="F75" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_5266409/52664097135.20250125204158.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_4143231/41432319618.20230726145433.jpg?type=f640</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>니모 NEMO 드래곤fly 바이크팩 2P 풋프린트</v>
+        <v>NEMO 2인용 야외 레져 텐트</v>
       </c>
       <c r="B76" t="str">
         <v/>
       </c>
       <c r="C76" t="str">
-        <v>etc</v>
+        <v>big4</v>
       </c>
       <c r="D76" t="str">
-        <v>etc</v>
+        <v>tent</v>
       </c>
       <c r="E76" t="str">
         <v>니모</v>
       </c>
       <c r="F76" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_5257985/52579853884.20250120184409.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_6962706/6962706343.20191231170456.jpg?type=f640</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>니모 NEMO 에어핀 스테이크 4개 세트</v>
+        <v>니모 NEMO 필로 럭셔리</v>
       </c>
       <c r="B77" t="str">
         <v/>
@@ -1939,32 +1939,32 @@
         <v>니모</v>
       </c>
       <c r="F77" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_3599832/35998323350.20221122033804.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_2557333/25573339648.20240928085357.jpg?type=f640</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>니모 제블린 스테이크 정식수입품</v>
-      </c>
-      <c r="B78" t="str">
-        <v/>
+        <v>니모 웨건탑 4P 텐트 4인용</v>
+      </c>
+      <c r="B78">
+        <v>8200</v>
       </c>
       <c r="C78" t="str">
-        <v>etc</v>
+        <v>big4</v>
       </c>
       <c r="D78" t="str">
-        <v>etc</v>
+        <v>tent</v>
       </c>
       <c r="E78" t="str">
         <v>니모</v>
       </c>
       <c r="F78" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_2733395/27333953081.20220519152712.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_9740311/9740311853.20191231190735.jpg?type=f640</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>니모 에어핀 텐트 말뚝 Set of 2</v>
+        <v>니모 필로 베개</v>
       </c>
       <c r="B79" t="str">
         <v/>
@@ -1979,12 +1979,12 @@
         <v>니모</v>
       </c>
       <c r="F79" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_4549776/45497760905.20240127180009.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_6984720/6984720214.20130701173723.jpg?type=f640</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>니모 에어핀 스테이크 2개 세트 텐트펙 경량펙 32683389</v>
+        <v>니모 더블 하울 70L</v>
       </c>
       <c r="B80" t="str">
         <v/>
@@ -1999,12 +1999,12 @@
         <v>니모</v>
       </c>
       <c r="F80" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_3817857/38178575529.20230222195002.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_4868372/48683729177.20240625185701.jpg?type=f640</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>니모 제블린 스테이크</v>
+        <v>니모 필로 에어 베개 캠핑용 백패킹 베개</v>
       </c>
       <c r="B81" t="str">
         <v/>
@@ -2019,15 +2019,15 @@
         <v>니모</v>
       </c>
       <c r="F81" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_3878399/38783999177.20230609042827.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_2386539/23865398243.20221107055149.jpg?type=f640</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>니모 드라곤플라이 오스모 바이크팩 2P 2인용 보레알</v>
+        <v>니모 쿠나이 3P 텐트 3인용</v>
       </c>
       <c r="B82">
-        <v>1800</v>
+        <v>2550</v>
       </c>
       <c r="C82" t="str">
         <v>big4</v>
@@ -2039,112 +2039,112 @@
         <v>니모</v>
       </c>
       <c r="F82" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_5278180/52781806002.20250203163937.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_5083402/50834021628.20241014152734.jpg?type=f640</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>니모 타프폴 M 백패킹폴 길이조절 알루미늄폴</v>
-      </c>
-      <c r="B83" t="str">
-        <v/>
+        <v>니모 오로라 3P 3인용</v>
+      </c>
+      <c r="B83">
+        <v>2850</v>
       </c>
       <c r="C83" t="str">
-        <v>etc</v>
+        <v>big4</v>
       </c>
       <c r="D83" t="str">
-        <v>etc</v>
+        <v>tent</v>
       </c>
       <c r="E83" t="str">
         <v>니모</v>
       </c>
       <c r="F83" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_4117189/41171893499.20230713201104.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_2346405/23464053490.20200715150534.jpg?type=f640</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>니모 NEMO 맬더 해머 캠핑용 파운딩 해머</v>
-      </c>
-      <c r="B84" t="str">
-        <v/>
+        <v>니모 문라이트 리클라이닝 체어</v>
+      </c>
+      <c r="B84">
+        <v>850</v>
       </c>
       <c r="C84" t="str">
-        <v>etc</v>
+        <v>furniture</v>
       </c>
       <c r="D84" t="str">
-        <v>etc</v>
+        <v>chair</v>
       </c>
       <c r="E84" t="str">
         <v>니모</v>
       </c>
       <c r="F84" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_4661340/46613400284.20240324135805.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_3509265/35092655618.20221006183728.jpg?type=f640</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>니모 맬더 해머 망치 다용도해머 백패킹 캠핑</v>
-      </c>
-      <c r="B85" t="str">
-        <v/>
+        <v>니모 코디악 3P 3인용</v>
+      </c>
+      <c r="B85">
+        <v>2380</v>
       </c>
       <c r="C85" t="str">
-        <v>etc</v>
+        <v>big4</v>
       </c>
       <c r="D85" t="str">
-        <v>etc</v>
+        <v>tent</v>
       </c>
       <c r="E85" t="str">
         <v>니모</v>
       </c>
       <c r="F85" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_3877503/38775032441.20230320084924.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_4141238/41412386618.20230725174119.jpg?type=f640</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>니모 NEMO 스윕 스테이크 6개 세트</v>
-      </c>
-      <c r="B86" t="str">
-        <v/>
+        <v>니모 필드컬렉션 코디악 텐트 3인용</v>
+      </c>
+      <c r="B86">
+        <v>2570</v>
       </c>
       <c r="C86" t="str">
-        <v>etc</v>
+        <v>big4</v>
       </c>
       <c r="D86" t="str">
-        <v>etc</v>
+        <v>tent</v>
       </c>
       <c r="E86" t="str">
         <v>니모</v>
       </c>
       <c r="F86" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_3814845/38148458245.20230221161544.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_5129675/51296755630.20241108163826.jpg?type=f640</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>니모 맬더 해머</v>
-      </c>
-      <c r="B87" t="str">
-        <v/>
+        <v>니모 아톰 캐년 텐트 2인용</v>
+      </c>
+      <c r="B87">
+        <v>1740</v>
       </c>
       <c r="C87" t="str">
-        <v>etc</v>
+        <v>big4</v>
       </c>
       <c r="D87" t="str">
-        <v>etc</v>
+        <v>tent</v>
       </c>
       <c r="E87" t="str">
         <v>니모</v>
       </c>
       <c r="F87" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_4752600/47526002722.20240505184756.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_2447991/24479918527.20201016163912.jpg?type=f640</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>니모 니모 드라곤플라이 바이크팩 2P 텐트 풋프린트포함</v>
+        <v>니모 필로 럭셔리</v>
       </c>
       <c r="B88" t="str">
         <v/>
@@ -2159,15 +2159,15 @@
         <v>니모</v>
       </c>
       <c r="F88" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_4693567/46935671994.20240408214932.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_4930130/49301302540.20240721200338.jpg?type=f640</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>니모 뉴 호넷 스톰 2P 2인용텐트</v>
+        <v>니모 펜탈라이트 4P 멀티캠 알파인 텐트 4인용</v>
       </c>
       <c r="B89">
-        <v>1130</v>
+        <v>2900</v>
       </c>
       <c r="C89" t="str">
         <v>big4</v>
@@ -2179,32 +2179,32 @@
         <v>니모</v>
       </c>
       <c r="F89" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_2063282/20632821754.20190815141103.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_9586605/9586605693.20191231174506.jpg?type=f640</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>니모 니모 웨건탑 8P 8인용텐트 오토캠핑</v>
-      </c>
-      <c r="B90" t="str">
-        <v/>
+        <v>니모 드라곤플라이 오스모 텐트 3인용</v>
+      </c>
+      <c r="B90">
+        <v>1770</v>
       </c>
       <c r="C90" t="str">
-        <v>etc</v>
+        <v>big4</v>
       </c>
       <c r="D90" t="str">
-        <v>etc</v>
+        <v>tent</v>
       </c>
       <c r="E90" t="str">
         <v>니모</v>
       </c>
       <c r="F90" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_4331674/43316740519.20231018163540.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_4186983/41869833619.20230814160224.jpg?type=f640</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>NEMO 니모 타프 폴 S 130 길이조절용 - 쉘터및 타프 전용폴</v>
+        <v>니모 nemo 스위치백 전용 파우치</v>
       </c>
       <c r="B91" t="str">
         <v/>
@@ -2219,12 +2219,12 @@
         <v>니모</v>
       </c>
       <c r="F91" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_2577608/25776088092.20221215173030.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_3187814/31878149961.20220418021436.jpg?type=f640</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>니모 NEMO 멜더 해머 NM-AC-MDH 1개</v>
+        <v>니모 헬리오 프레셔 샤워 휴대용 샤워기</v>
       </c>
       <c r="B92" t="str">
         <v/>
@@ -2239,32 +2239,32 @@
         <v>니모</v>
       </c>
       <c r="F92" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_5132979/51329796354.20241110185821.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_4705480/47054802455.20250129080014.jpg?type=f640</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>니모 헬리오 프레셔 샤워</v>
-      </c>
-      <c r="B93" t="str">
-        <v/>
+        <v>니모 뉴 호넷 2P 텐트 2인용</v>
+      </c>
+      <c r="B93">
+        <v>935</v>
       </c>
       <c r="C93" t="str">
-        <v>etc</v>
+        <v>big4</v>
       </c>
       <c r="D93" t="str">
-        <v>etc</v>
+        <v>tent</v>
       </c>
       <c r="E93" t="str">
         <v>니모</v>
       </c>
       <c r="F93" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_3958226/39582262129.20240909112229.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_4595740/45957409620.20240222154943.jpg?type=f640</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>니모 NEMO 아톰 풋프린트 1P</v>
+        <v>니모 더블 하울 55L</v>
       </c>
       <c r="B94" t="str">
         <v/>
@@ -2279,32 +2279,32 @@
         <v>니모</v>
       </c>
       <c r="F94" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_4035132/40351323571.20230601174935.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_4744382/47443825479.20240501132025.jpg?type=f640</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>니모 NEMO 장비 호넷 배낭 텐트 발자국 2 Person</v>
-      </c>
-      <c r="B95" t="str">
-        <v/>
+        <v>니모 오로라 하이라이즈 텐트 4인용</v>
+      </c>
+      <c r="B95">
+        <v>7200</v>
       </c>
       <c r="C95" t="str">
-        <v>etc</v>
+        <v>big4</v>
       </c>
       <c r="D95" t="str">
-        <v>etc</v>
+        <v>tent</v>
       </c>
       <c r="E95" t="str">
         <v>니모</v>
       </c>
       <c r="F95" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_5304370/53043706288.20250217012751.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_3834597/38345972618.20230301181111.jpg?type=f640</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>니모 스위치백 전용케이스 - 수납파우치 단품 1개</v>
+        <v>니모 헬리오 프레셔 샤워 야외용 샤워기 캠핑</v>
       </c>
       <c r="B96" t="str">
         <v/>
@@ -2319,32 +2319,32 @@
         <v>니모</v>
       </c>
       <c r="F96" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_4983191/49831917971.20240817183413.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_3365503/33655039256.20240413075734.jpg?type=f640</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>니모 헬리오폴리스 샤워텐트 모나크</v>
-      </c>
-      <c r="B97">
-        <v>3510</v>
+        <v>니모 NEMO 헬리오 휴대용 압력 캠프 샤워기 22 Liter - Apple Green</v>
+      </c>
+      <c r="B97" t="str">
+        <v/>
       </c>
       <c r="C97" t="str">
-        <v>big4</v>
+        <v>etc</v>
       </c>
       <c r="D97" t="str">
-        <v>tent</v>
+        <v>etc</v>
       </c>
       <c r="E97" t="str">
         <v>니모</v>
       </c>
       <c r="F97" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_5319228/53192281888.20250224174136.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_4358709/43587091755.20231030205420.jpg?type=f640</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>니모 어드저스터블 타프 폴 L 1개</v>
+        <v>니모 필로 엘리트 정식수입품</v>
       </c>
       <c r="B98" t="str">
         <v/>
@@ -2359,72 +2359,72 @@
         <v>니모</v>
       </c>
       <c r="F98" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_4987895/49878950248.20240821000539.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_5267558/52675589599.20250126170516.jpg?type=f640</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>니모 드라곤플라이 오스모 텐트 2인용 버치버드 굿나잇그레이</v>
-      </c>
-      <c r="B99">
-        <v>1200</v>
+        <v>니모 스위치백 전용파우치</v>
+      </c>
+      <c r="B99" t="str">
+        <v/>
       </c>
       <c r="C99" t="str">
-        <v>big4</v>
+        <v>etc</v>
       </c>
       <c r="D99" t="str">
-        <v>tent</v>
+        <v>etc</v>
       </c>
       <c r="E99" t="str">
         <v>니모</v>
       </c>
       <c r="F99" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_5279992/52799926416.20250204145001.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_3679401/36794013520.20221227111639.jpg?type=f640</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>니모 스타게이즈 리클라이너 럭셔리 캠핑의자</v>
+        <v>니모 더블 하울 30L</v>
       </c>
       <c r="B100" t="str">
         <v/>
       </c>
       <c r="C100" t="str">
-        <v>furniture</v>
+        <v>etc</v>
       </c>
       <c r="D100" t="str">
-        <v>chair</v>
+        <v>etc</v>
       </c>
       <c r="E100" t="str">
         <v>니모</v>
       </c>
       <c r="F100" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_2669010/26690103003.20220518092200.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_4752652/47526520457.20240505195627.jpg?type=f640</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>니모 NEMO 와곤탑 4P 풋프린트 2020</v>
-      </c>
-      <c r="B101" t="str">
-        <v/>
+        <v>니모 웨건탑 6P 텐트 6인용</v>
+      </c>
+      <c r="B101">
+        <v>10900</v>
       </c>
       <c r="C101" t="str">
-        <v>etc</v>
+        <v>big4</v>
       </c>
       <c r="D101" t="str">
-        <v>etc</v>
+        <v>tent</v>
       </c>
       <c r="E101" t="str">
         <v>니모</v>
       </c>
       <c r="F101" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_4577812/45778126010.20240212144010.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_2252128/22521281953.20200417180952.jpg?type=f640</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>니모 모키 3p 포프린트 이너 라이너</v>
+        <v>니모 NEMO 장비 오로라 고층 텐트 발자국</v>
       </c>
       <c r="B102" t="str">
         <v/>
@@ -2439,35 +2439,35 @@
         <v>니모</v>
       </c>
       <c r="F102" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_3169493/31694934572.20220409200914.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_4539525/45395255848.20240122175819.jpg?type=f640</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>니모 필로 에어 베개 캠핑용 백패킹 베개</v>
-      </c>
-      <c r="B103" t="str">
-        <v/>
+        <v>니모 드라곤플라이 오스모 텐트 1인용</v>
+      </c>
+      <c r="B103">
+        <v>1200</v>
       </c>
       <c r="C103" t="str">
-        <v>etc</v>
+        <v>big4</v>
       </c>
       <c r="D103" t="str">
-        <v>etc</v>
+        <v>tent</v>
       </c>
       <c r="E103" t="str">
         <v>니모</v>
       </c>
       <c r="F103" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_2386539/23865398243.20221107055149.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_4186899/41868995618.20230814145858.jpg?type=f640</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>니모 호넷 엘리트 오스모 1P 1인용 알루미늄스토미나이트</v>
+        <v>니모 웨건탑 4P 캐년</v>
       </c>
       <c r="B104">
-        <v>812</v>
+        <v>9110</v>
       </c>
       <c r="C104" t="str">
         <v>big4</v>
@@ -2479,132 +2479,132 @@
         <v>니모</v>
       </c>
       <c r="F104" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_5314591/53145917345.20250221154619.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_2346432/23464321490.20200715152111.jpg?type=f640</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>니모 NEMO 필로 럭셔리</v>
-      </c>
-      <c r="B105" t="str">
-        <v/>
+        <v>니모 호넷 오스모 3P 텐트 3인용</v>
+      </c>
+      <c r="B105">
+        <v>1490</v>
       </c>
       <c r="C105" t="str">
-        <v>etc</v>
+        <v>big4</v>
       </c>
       <c r="D105" t="str">
-        <v>etc</v>
+        <v>tent</v>
       </c>
       <c r="E105" t="str">
         <v>니모</v>
       </c>
       <c r="F105" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_2557333/25573339648.20240928085357.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_4595769/45957699619.20240222154053.jpg?type=f640</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>NEMO 니모 타프 폴 M 150 길이조절용 - 쉘터및 타프 전용폴</v>
-      </c>
-      <c r="B106" t="str">
-        <v/>
+        <v>니모 메이플라이 오스모 3P 텐트 3인용</v>
+      </c>
+      <c r="B106">
+        <v>1860</v>
       </c>
       <c r="C106" t="str">
-        <v>etc</v>
+        <v>big4</v>
       </c>
       <c r="D106" t="str">
-        <v>etc</v>
+        <v>tent</v>
       </c>
       <c r="E106" t="str">
         <v>니모</v>
       </c>
       <c r="F106" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_3170179/31701795787.20220410082224.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_4631105/46311055619.20240311115923.jpg?type=f640</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>니모 타프 폴 길이 조절용 L 203</v>
-      </c>
-      <c r="B107" t="str">
-        <v/>
+        <v>니모 문랜더</v>
+      </c>
+      <c r="B107">
+        <v>2200</v>
       </c>
       <c r="C107" t="str">
-        <v>etc</v>
+        <v>furniture</v>
       </c>
       <c r="D107" t="str">
-        <v>etc</v>
+        <v>table</v>
       </c>
       <c r="E107" t="str">
         <v>니모</v>
       </c>
       <c r="F107" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_4791583/47915838413.20240522222757.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_4141051/41410515618.20230725153055.jpg?type=f640</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>니모 뉴 호넷 엘리트 2P 2인용</v>
-      </c>
-      <c r="B108">
-        <v>779</v>
+        <v>니모 필로 정식수입품</v>
+      </c>
+      <c r="B108" t="str">
+        <v/>
       </c>
       <c r="C108" t="str">
-        <v>big4</v>
+        <v>etc</v>
       </c>
       <c r="D108" t="str">
-        <v>tent</v>
+        <v>etc</v>
       </c>
       <c r="E108" t="str">
         <v>니모</v>
       </c>
       <c r="F108" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_4143277/41432770620.20230726154456.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_4597795/45977952208.20240223130135.jpg?type=f640</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>니모 카유 15 롱 침낭</v>
-      </c>
-      <c r="B109">
-        <v>1000</v>
+        <v>NEMO 니모 스위치백 전용케이스 - 수납파우치</v>
+      </c>
+      <c r="B109" t="str">
+        <v/>
       </c>
       <c r="C109" t="str">
-        <v>big4</v>
+        <v>etc</v>
       </c>
       <c r="D109" t="str">
-        <v>sleeping_bag</v>
+        <v>etc</v>
       </c>
       <c r="E109" t="str">
         <v>니모</v>
       </c>
       <c r="F109" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_2693614/26936141523.20210427123839.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_4086864/40868647101.20230628173241.jpg?type=f640</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>니모 헬리오 프레셔 샤워 야외용 샤워기 캠핑</v>
-      </c>
-      <c r="B110" t="str">
-        <v/>
+        <v>니모 초고리 3P 알파인 텐트</v>
+      </c>
+      <c r="B110">
+        <v>3820</v>
       </c>
       <c r="C110" t="str">
-        <v>etc</v>
+        <v>big4</v>
       </c>
       <c r="D110" t="str">
-        <v>etc</v>
+        <v>tent</v>
       </c>
       <c r="E110" t="str">
         <v>니모</v>
       </c>
       <c r="F110" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_3365503/33655039256.20240413075734.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_2063258/20632583581.20190815125024.jpg?type=f640</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>니모 필로 럭셔리</v>
+        <v>니모 필로 킹</v>
       </c>
       <c r="B111" t="str">
         <v/>
@@ -2619,12 +2619,12 @@
         <v>니모</v>
       </c>
       <c r="F111" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_4930130/49301302540.20240721200338.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_2659220/26592207966.20230119143755.jpg?type=f640</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>니모 더블 하울 30L</v>
+        <v>니모 NEMO 장비 단검 텐트 발자국</v>
       </c>
       <c r="B112" t="str">
         <v/>
@@ -2639,72 +2639,72 @@
         <v>니모</v>
       </c>
       <c r="F112" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_4752652/47526520457.20240505195627.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_4554808/45548084063.20240130214416.jpg?type=f640</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>니모 드라곤플라이 오스모 텐트 2인용 + 풋프린트 버치버드 굿나잇그레이</v>
-      </c>
-      <c r="B113">
-        <v>1200</v>
+        <v>NEMO 니모 필로 엘리트 - 망고</v>
+      </c>
+      <c r="B113" t="str">
+        <v/>
       </c>
       <c r="C113" t="str">
-        <v>big4</v>
+        <v>etc</v>
       </c>
       <c r="D113" t="str">
-        <v>tent</v>
+        <v>etc</v>
       </c>
       <c r="E113" t="str">
         <v>니모</v>
       </c>
       <c r="F113" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_5279946/52799467875.20250204144449.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_5268880/52688803411.20250127223958.jpg?type=f640</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>니모 NEMO 가이라인 키트</v>
-      </c>
-      <c r="B114" t="str">
-        <v/>
+        <v>니모 다크 팀버 텐트 4인용</v>
+      </c>
+      <c r="B114">
+        <v>7900</v>
       </c>
       <c r="C114" t="str">
-        <v>etc</v>
+        <v>big4</v>
       </c>
       <c r="D114" t="str">
-        <v>etc</v>
+        <v>tent</v>
       </c>
       <c r="E114" t="str">
         <v>니모</v>
       </c>
       <c r="F114" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_3731514/37315149067.20230119172213.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_2403857/24038573527.20200904114820.jpg?type=f640</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>니모 풋프린트 그라운드시트 코디악 3p용 NM-AC-FP-KD3</v>
-      </c>
-      <c r="B115" t="str">
-        <v/>
+        <v>니모 스타게이즈 럭셔리 체어</v>
+      </c>
+      <c r="B115">
+        <v>3060</v>
       </c>
       <c r="C115" t="str">
-        <v>etc</v>
+        <v>furniture</v>
       </c>
       <c r="D115" t="str">
-        <v>etc</v>
+        <v>chair</v>
       </c>
       <c r="E115" t="str">
         <v>니모</v>
       </c>
       <c r="F115" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_3902437/39024371309.20240217144953.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_1401672/14016724606.20210407163217.jpg?type=f640</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>니모 NEMO 제블린 스테이크</v>
+        <v>니모 잠자리 텐트를 위한 NEMO 발자국</v>
       </c>
       <c r="B116" t="str">
         <v/>
@@ -2719,12 +2719,12 @@
         <v>니모</v>
       </c>
       <c r="F116" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_3796375/37963755039.20230214203912.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_4576599/45765990286.20240211135717.jpg?type=f640</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>니모 타프폴 S 130 정식수입품</v>
+        <v>니모 더블 하울 70L 캠핑수납가방 3웨이 아웃도어 더플백</v>
       </c>
       <c r="B117" t="str">
         <v/>
@@ -2739,12 +2739,12 @@
         <v>니모</v>
       </c>
       <c r="F117" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_2575027/25750277520.20210126192223.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_5302101/53021017014.20250216222819.jpg?type=f640</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>니모 NEMO 어드져스터블 타프 폴 M 150 180</v>
+        <v>니모 필로TM 엘리트 블랙펄</v>
       </c>
       <c r="B118" t="str">
         <v/>
@@ -2759,12 +2759,12 @@
         <v>니모</v>
       </c>
       <c r="F118" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_3796444/37964444335.20230214215144.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_5263131/52631311943.20250124214042.jpg?type=f640</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>니모 스위치백 전용파우치</v>
+        <v>니모 필로 엘리트 럭셔리 베개 여행 배낭여행 캠핑용 풍선 원 사이즈 어비스</v>
       </c>
       <c r="B119" t="str">
         <v/>
@@ -2779,12 +2779,12 @@
         <v>니모</v>
       </c>
       <c r="F119" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_3679401/36794013520.20221227111639.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_5035995/50359955601.20240917185447.jpg?type=f640</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>니모 Nemo 가이라인 키트</v>
+        <v>니모 NEMO 헬리오 프레셔 샤워</v>
       </c>
       <c r="B120" t="str">
         <v/>
@@ -2799,12 +2799,12 @@
         <v>니모</v>
       </c>
       <c r="F120" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_3876104/38761046500.20250120045255.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_3389138/33891381435.20230212173321.jpg?type=f640</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>니모 어저스터블 타프 폴대 L NM-AC-TPL2</v>
+        <v>니모 빅토리 스크린하우스 캠프 쉘터</v>
       </c>
       <c r="B121" t="str">
         <v/>
@@ -2819,32 +2819,32 @@
         <v>니모</v>
       </c>
       <c r="F121" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_4116712/41167125592.20230714090127.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_4679361/46793618964.20240401203519.jpg?type=f640</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>니모 오로라 릿지 3P</v>
-      </c>
-      <c r="B122">
-        <v>2800</v>
+        <v>니모 초경량 캠핑베개 백패킹 여행베개 휴대용필로우</v>
+      </c>
+      <c r="B122" t="str">
+        <v/>
       </c>
       <c r="C122" t="str">
-        <v>big4</v>
+        <v>etc</v>
       </c>
       <c r="D122" t="str">
-        <v>tent</v>
+        <v>etc</v>
       </c>
       <c r="E122" t="str">
         <v>니모</v>
       </c>
       <c r="F122" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_4143370/41433707618.20230726162211.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_5238631/52386314472.20250108233449.jpg?type=f640</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>방수포 니모 로시 4P 전용 그라운드시트 타포린 풋프린트 천막 캠핑</v>
+        <v>니모 필로 엘리트 럭셔리 정식수입품</v>
       </c>
       <c r="B123" t="str">
         <v/>
@@ -2859,32 +2859,32 @@
         <v>니모</v>
       </c>
       <c r="F123" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_5017831/50178316662.20241129184537.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_4914268/49142686782.20240714215915.jpg?type=f640</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>니모 x 필드 컬렉션 코디악 텐트 2인용</v>
-      </c>
-      <c r="B124">
-        <v>1810</v>
+        <v>니모 헬리오폴리스 프라이버시 쉘터 샤워 텐트 헬리오 압력 샤워와 호환</v>
+      </c>
+      <c r="B124" t="str">
+        <v/>
       </c>
       <c r="C124" t="str">
-        <v>big4</v>
+        <v>etc</v>
       </c>
       <c r="D124" t="str">
-        <v>tent</v>
+        <v>etc</v>
       </c>
       <c r="E124" t="str">
         <v>니모</v>
       </c>
       <c r="F124" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_3835959/38359598619.20230302104007.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_4660184/46601847188.20240323172410.jpg?type=f640</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>니모 텐트 폴대 타프 트랩 캠핑 NEMO 조절 가능한 극 L NMACTPL2</v>
+        <v>니모 NEMO Helio 압력 샤워 - 11리터</v>
       </c>
       <c r="B125" t="str">
         <v/>
@@ -2899,12 +2899,12 @@
         <v>니모</v>
       </c>
       <c r="F125" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_5227362/52273624778.20250103225627.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_4699615/46996153260.20240411193335.jpg?type=f640</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>니모 쿠나이 풋프린트 - 2 Person 292963</v>
+        <v>니모 문랜더 테이블</v>
       </c>
       <c r="B126" t="str">
         <v/>
@@ -2919,12 +2919,12 @@
         <v>니모</v>
       </c>
       <c r="F126" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_5232681/52326818048.20250106195736.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_4590595/45905954897.20240219200236.jpg?type=f640</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>니모 헬리오 프레셔 샤워 휴대용 샤워기</v>
+        <v>니모 NEMO 트레이서 침낭 라이너 Long</v>
       </c>
       <c r="B127" t="str">
         <v/>
@@ -2939,12 +2939,12 @@
         <v>니모</v>
       </c>
       <c r="F127" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_4705480/47054802455.20250129080014.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_4600186/46001866229.20240224195503.jpg?type=f640</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>니모 필로 베개</v>
+        <v>니모 타프폴 L 203 정식수입품</v>
       </c>
       <c r="B128" t="str">
         <v/>
@@ -2959,12 +2959,12 @@
         <v>니모</v>
       </c>
       <c r="F128" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_6984720/6984720214.20130701173723.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_4599742/45997420387.20240224123526.jpg?type=f640</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>니모 nemo 스위치백 전용 파우치</v>
+        <v>니모 NEMO 필로 와이드</v>
       </c>
       <c r="B129" t="str">
         <v/>
@@ -2979,72 +2979,72 @@
         <v>니모</v>
       </c>
       <c r="F129" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_3187814/31878149961.20220418021436.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_5285998/52859980987.20250208002900.jpg?type=f640</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>니모 트래커 텐트 2인용</v>
-      </c>
-      <c r="B130">
-        <v>1370</v>
+        <v>니모 필로TM 벨로우 자충베개 캠핑베개 미니멀 백패킹</v>
+      </c>
+      <c r="B130" t="str">
+        <v/>
       </c>
       <c r="C130" t="str">
-        <v>big4</v>
+        <v>etc</v>
       </c>
       <c r="D130" t="str">
-        <v>tent</v>
+        <v>etc</v>
       </c>
       <c r="E130" t="str">
         <v>니모</v>
       </c>
       <c r="F130" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_3520710/35207107620.20221013134116.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_3056526/30565263547.20220117001053.jpg?type=f640</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>니모 트레이서 롱 침낭라이너</v>
-      </c>
-      <c r="B131">
-        <v>261</v>
+        <v>니모 필로 엘리트 와이드 캠핑용 베개</v>
+      </c>
+      <c r="B131" t="str">
+        <v/>
       </c>
       <c r="C131" t="str">
-        <v>big4</v>
+        <v>etc</v>
       </c>
       <c r="D131" t="str">
-        <v>sleeping_bag</v>
+        <v>etc</v>
       </c>
       <c r="E131" t="str">
         <v>니모</v>
       </c>
       <c r="F131" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_4436852/44368525624.20231201114811.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_5267702/52677026227.20250126232221.jpg?type=f640</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>니모 다이거 오스모 텐트 3인용 버치버드 굿나잇그레이</v>
-      </c>
-      <c r="B132">
-        <v>2100</v>
+        <v>NEMO 니모 필로 엘리트 - 호라이즌</v>
+      </c>
+      <c r="B132" t="str">
+        <v/>
       </c>
       <c r="C132" t="str">
-        <v>big4</v>
+        <v>etc</v>
       </c>
       <c r="D132" t="str">
-        <v>tent</v>
+        <v>etc</v>
       </c>
       <c r="E132" t="str">
         <v>니모</v>
       </c>
       <c r="F132" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_5320846/53208467834.20250225101537.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_5267681/52676816198.20250126213512.jpg?type=f640</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>니모 NEMO 헬리오 휴대용 압력 캠프 샤워기 22 Liter - Apple Green</v>
+        <v>니모 NEMO 필로 엘리트 와이드</v>
       </c>
       <c r="B133" t="str">
         <v/>
@@ -3059,12 +3059,12 @@
         <v>니모</v>
       </c>
       <c r="F133" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_4358709/43587091755.20231030205420.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_5267658/52676582658.20250127121854.jpg?type=f640</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>니모 NEMO 호넷 2P 풋프린트</v>
+        <v>니모 NEMO Helio 압력 샤워 - 22리터</v>
       </c>
       <c r="B134" t="str">
         <v/>
@@ -3079,12 +3079,12 @@
         <v>니모</v>
       </c>
       <c r="F134" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_5267671/52676719673.20250126204513.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_4745025/47450257413.20240501204945.jpg?type=f640</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>니모 더블 하울 55L</v>
+        <v>니모 NEMO TANI Osmo 2P 공간 NMACFPTNOS2</v>
       </c>
       <c r="B135" t="str">
         <v/>
@@ -3099,32 +3099,32 @@
         <v>니모</v>
       </c>
       <c r="F135" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_4744382/47443825479.20240501132025.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_4603629/46036295788.20240226191945.jpg?type=f640</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>니모 프론트 포치 2P 텐트 2인용</v>
-      </c>
-      <c r="B136">
-        <v>3800</v>
+        <v>니모 NEMO 로머 수면패드 와이드 Wide</v>
+      </c>
+      <c r="B136" t="str">
+        <v/>
       </c>
       <c r="C136" t="str">
-        <v>big4</v>
+        <v>etc</v>
       </c>
       <c r="D136" t="str">
-        <v>tent</v>
+        <v>etc</v>
       </c>
       <c r="E136" t="str">
         <v>니모</v>
       </c>
       <c r="F136" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_1104430/11044300629.20170217164239.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_4690430/46904307429.20240406174912.jpg?type=f640</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>니모 필로 엘리트 정식수입품</v>
+        <v>니모 헬리오 프레셔 아웃도어 캠핑 차박 간이 이동식 휴대용 샤워기 1개</v>
       </c>
       <c r="B137" t="str">
         <v/>
@@ -3139,32 +3139,32 @@
         <v>니모</v>
       </c>
       <c r="F137" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_5267558/52675589599.20250126170516.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_4134512/41345120355.20230722134135.jpg?type=f640</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>니모 드라곤플라이 텐트 2인용</v>
-      </c>
-      <c r="B138">
-        <v>1410</v>
+        <v>Nemo Helio 니모 헬리오 캠핑 휴대용 샤워기 11L 22L</v>
+      </c>
+      <c r="B138" t="str">
+        <v/>
       </c>
       <c r="C138" t="str">
-        <v>big4</v>
+        <v>etc</v>
       </c>
       <c r="D138" t="str">
-        <v>tent</v>
+        <v>etc</v>
       </c>
       <c r="E138" t="str">
         <v>니모</v>
       </c>
       <c r="F138" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_2123436/21234366529.20211122112654.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_3102898/31028986988.20231109145222.jpg?type=f640</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>니모 NEMO 필로 럭셔리</v>
+        <v>니모 맬더 해머</v>
       </c>
       <c r="B139" t="str">
         <v/>
@@ -3179,12 +3179,12 @@
         <v>니모</v>
       </c>
       <c r="F139" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_3731927/37319277421.20230119214037.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_4838760/48387603074.20240613055004.jpg?type=f640</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>니모 폴 조정가능한 S사이즈 NM-AC-TPS</v>
+        <v>니모 타프폴 M 150 정식수입품</v>
       </c>
       <c r="B140" t="str">
         <v/>
@@ -3199,32 +3199,32 @@
         <v>니모</v>
       </c>
       <c r="F140" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_3802193/38021937827.20230216202126.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_4597810/45978105175.20240223132910.jpg?type=f640</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>니모 트레이서 레귤러 침낭라이너</v>
-      </c>
-      <c r="B141">
-        <v>234</v>
+        <v>니모 NEMO 캠핑 샤워기 헬리오 프레셔샤워 캠핑필수품 캠퍼족 11L 경량 가벼운</v>
+      </c>
+      <c r="B141" t="str">
+        <v/>
       </c>
       <c r="C141" t="str">
-        <v>big4</v>
+        <v>etc</v>
       </c>
       <c r="D141" t="str">
-        <v>sleeping_bag</v>
+        <v>etc</v>
       </c>
       <c r="E141" t="str">
         <v>니모</v>
       </c>
       <c r="F141" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_4436960/44369605618.20231212121005.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_5300323/53003238827.20250213215627.jpg?type=f640</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>NEMO 니모 헬리오 프레셔 샤워 - 풋 펌핑 휴대용 샤워기</v>
+        <v>니모 더블 하울 55L 캠핑수납가방 3웨이 아웃도어 더플백</v>
       </c>
       <c r="B142" t="str">
         <v/>
@@ -3239,32 +3239,32 @@
         <v>니모</v>
       </c>
       <c r="F142" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_3926866/39268662692.20230409142509.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_5316514/53165143127.20250223034538.jpg?type=f640</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>니모 메이플라이 오스모 2P 텐트 2인용</v>
+        <v>니모 필로 럭셔리</v>
       </c>
       <c r="B143" t="str">
         <v/>
       </c>
       <c r="C143" t="str">
-        <v>big4</v>
+        <v>etc</v>
       </c>
       <c r="D143" t="str">
-        <v>tent</v>
+        <v>etc</v>
       </c>
       <c r="E143" t="str">
         <v>니모</v>
       </c>
       <c r="F143" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_4631100/46311001622.20240311104347.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_5032057/50320571547.20240913221813.jpg?type=f640</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>니모 필로 엘리트 럭셔리 정식수입품</v>
+        <v>니모 에어핀 스테이크 set of 4</v>
       </c>
       <c r="B144" t="str">
         <v/>
@@ -3279,32 +3279,32 @@
         <v>니모</v>
       </c>
       <c r="F144" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_4914268/49142686782.20240714215915.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_4664974/46649741540.20240326174201.jpg?type=f640</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>니모 카유 15 레귤러 침낭</v>
-      </c>
-      <c r="B145">
-        <v>975</v>
+        <v>니모 헬리오 프레셔 샤워 감성캠핑 백패킹</v>
+      </c>
+      <c r="B145" t="str">
+        <v/>
       </c>
       <c r="C145" t="str">
-        <v>big4</v>
+        <v>etc</v>
       </c>
       <c r="D145" t="str">
-        <v>sleeping_bag</v>
+        <v>etc</v>
       </c>
       <c r="E145" t="str">
         <v>니모</v>
       </c>
       <c r="F145" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_2693594/26935941527.20210427122521.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_3945010/39450105455.20230418124912.jpg?type=f640</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>니모 NEMO 장비 오로라 고층 텐트 발자국</v>
+        <v>니모 스위치백 폼 슬리핑 패드</v>
       </c>
       <c r="B146" t="str">
         <v/>
@@ -3319,12 +3319,12 @@
         <v>니모</v>
       </c>
       <c r="F146" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_4539525/45395255848.20240122175819.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_5024417/50244170290.20240909210950.jpg?type=f640</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>니모 필로 킹</v>
+        <v>니모 섀도우캐스터 110 헥사타프 정식수입품</v>
       </c>
       <c r="B147" t="str">
         <v/>
@@ -3339,12 +3339,12 @@
         <v>니모</v>
       </c>
       <c r="F147" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_2659220/26592207966.20230119143755.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_2795478/27954789845.20211003031015.jpg?type=f640</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v>니모 필로 정식수입품</v>
+        <v>니모 NEMO 필로</v>
       </c>
       <c r="B148" t="str">
         <v/>
@@ -3359,32 +3359,32 @@
         <v>니모</v>
       </c>
       <c r="F148" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_4597795/45977952208.20240223130135.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_3731029/37310292815.20230119120807.jpg?type=f640</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="str">
-        <v>니모 문라이트 엘리트 필드 체어</v>
-      </c>
-      <c r="B149">
-        <v>617</v>
+        <v>니모 NEMO 스파이크 2P - 2인용 초경량텐트</v>
+      </c>
+      <c r="B149" t="str">
+        <v/>
       </c>
       <c r="C149" t="str">
-        <v>furniture</v>
+        <v>etc</v>
       </c>
       <c r="D149" t="str">
-        <v>chair</v>
+        <v>etc</v>
       </c>
       <c r="E149" t="str">
         <v>니모</v>
       </c>
       <c r="F149" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_4886741/48867412619.20240702162335.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_1116042/11160423833.20181119022008.jpg?type=f640</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v>니모 NEMO 장비 단검 텐트 발자국</v>
+        <v>니모 필로 벨로우</v>
       </c>
       <c r="B150" t="str">
         <v/>
@@ -3399,15 +3399,15 @@
         <v>니모</v>
       </c>
       <c r="F150" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_4554808/45548084063.20240130214416.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_4842342/48423424373.20240613195227.jpg?type=f640</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="str">
-        <v>니모 스칼라 필드 타프&amp;쉘터</v>
-      </c>
-      <c r="B151">
-        <v>625</v>
+        <v>NEMO 니모 NEMO X BUBEL 비치타올 L</v>
+      </c>
+      <c r="B151" t="str">
+        <v/>
       </c>
       <c r="C151" t="str">
         <v>etc</v>
@@ -3419,12 +3419,12 @@
         <v>니모</v>
       </c>
       <c r="F151" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_3185744/31857448235.20220416124453.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_4749127/47491275148.20240503214423.jpg?type=f640</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v>NEMO 니모 스위치백 전용케이스 - 수납파우치</v>
+        <v>NEMO 니모 포르테 끝 약속 합성 침낭 Mens 20 Reg</v>
       </c>
       <c r="B152" t="str">
         <v/>
@@ -3439,12 +3439,12 @@
         <v>니모</v>
       </c>
       <c r="F152" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_4086864/40868647101.20230628173241.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_5022800/50228009096.20240908225302.jpg?type=f640</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="str">
-        <v>니모 더블 하울 70L</v>
+        <v>니모 펜탈라이트 4P 멀티캠 알파인</v>
       </c>
       <c r="B153" t="str">
         <v/>
@@ -3459,15 +3459,15 @@
         <v>니모</v>
       </c>
       <c r="F153" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_4868372/48683729177.20240625185701.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_1112334/11123340296.20200520134043.jpg?type=f640</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="str">
-        <v>니모 어드져스터블 타프폴 L</v>
-      </c>
-      <c r="B154">
-        <v>750</v>
+        <v>NEMO 니모 재즈 합성 침낭 Double - 52 X 78 in</v>
+      </c>
+      <c r="B154" t="str">
+        <v/>
       </c>
       <c r="C154" t="str">
         <v>etc</v>
@@ -3479,12 +3479,12 @@
         <v>니모</v>
       </c>
       <c r="F154" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_2641632/26416323526.20210319115519.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_4724230/47242303004.20240422185954.jpg?type=f640</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="str">
-        <v>니모 타프폴 M 150 정식수입품</v>
+        <v>니모 NEMO 필로 벨로우</v>
       </c>
       <c r="B155" t="str">
         <v/>
@@ -3499,32 +3499,32 @@
         <v>니모</v>
       </c>
       <c r="F155" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_4597810/45978105175.20240223132910.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_3572803/35728030399.20221109142117.jpg?type=f640</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="str">
-        <v>니모 코디악 3P 3인용</v>
-      </c>
-      <c r="B156">
-        <v>2380</v>
+        <v>NEMO 니모 헬리오 프레셔 샤워 - 휴대용 샤워기</v>
+      </c>
+      <c r="B156" t="str">
+        <v/>
       </c>
       <c r="C156" t="str">
-        <v>big4</v>
+        <v>etc</v>
       </c>
       <c r="D156" t="str">
-        <v>tent</v>
+        <v>etc</v>
       </c>
       <c r="E156" t="str">
         <v>니모</v>
       </c>
       <c r="F156" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_4141238/41412386618.20230725174119.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_3571044/35710445242.20240915192512.jpg?type=f640</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="str">
-        <v>니모 빅토리 스크린하우스 캠프 쉘터</v>
+        <v>NEMO 니모 필로 벨로우</v>
       </c>
       <c r="B157" t="str">
         <v/>
@@ -3539,12 +3539,12 @@
         <v>니모</v>
       </c>
       <c r="F157" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_4679361/46793618964.20240401203519.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_3581214/35812147757.20240917070852.jpg?type=f640</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="str">
-        <v>니모 잠자리 텐트를 위한 NEMO 발자국</v>
+        <v>니모 헬리오 프레셔 샤워 감성캠핑 백패킹</v>
       </c>
       <c r="B158" t="str">
         <v/>
@@ -3559,72 +3559,3272 @@
         <v>니모</v>
       </c>
       <c r="F158" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_4576599/45765990286.20240211135717.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_3938484/39384844212.20230414180034.jpg?type=f640</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="str">
-        <v>니모 스위치백 폼 슬리핑 패드 Regular</v>
+        <v>니모 더블 하울 100L 캠핑수납가방 3웨이 아웃도어 더플백</v>
       </c>
       <c r="B159" t="str">
         <v/>
       </c>
       <c r="C159" t="str">
-        <v/>
+        <v>etc</v>
       </c>
       <c r="D159" t="str">
-        <v/>
+        <v>etc</v>
       </c>
       <c r="E159" t="str">
         <v>니모</v>
       </c>
       <c r="F159" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_4391955/43919550966.20231109144606.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_5304356/53043562926.20250218200429.jpg?type=f640</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="str">
-        <v>니모 다이거 오스모 3인용</v>
-      </c>
-      <c r="B160">
-        <v>2100</v>
+        <v>니모 헬리오 프레셔 샤워 휴대용 샤워기 정식수입품</v>
+      </c>
+      <c r="B160" t="str">
+        <v/>
       </c>
       <c r="C160" t="str">
-        <v>big4</v>
+        <v>etc</v>
       </c>
       <c r="D160" t="str">
-        <v>tent</v>
+        <v>etc</v>
       </c>
       <c r="E160" t="str">
         <v>니모</v>
       </c>
       <c r="F160" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_4647900/46479009620.20240318111658.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_3978849/39788495525.20230504150930.jpg?type=f640</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="str">
+        <v>니모 헬리오 휴대용 캠핑용 핸즈프리 야외 샤워기 1개</v>
+      </c>
+      <c r="B161" t="str">
+        <v/>
+      </c>
+      <c r="C161" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D161" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E161" t="str">
+        <v>니모</v>
+      </c>
+      <c r="F161" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_5138718/51387183630.20241113215251.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="str">
         <v>니모 더블 하울 30L 캠핑수납가방 3웨이 아웃도어 더플백</v>
       </c>
-      <c r="B161" t="str">
-        <v/>
-      </c>
-      <c r="C161" t="str">
-        <v>etc</v>
-      </c>
-      <c r="D161" t="str">
-        <v>etc</v>
-      </c>
-      <c r="E161" t="str">
-        <v>니모</v>
-      </c>
-      <c r="F161" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_5323422/53234228188.20250227201044.jpg?type=f140</v>
+      <c r="B162" t="str">
+        <v/>
+      </c>
+      <c r="C162" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D162" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E162" t="str">
+        <v>니모</v>
+      </c>
+      <c r="F162" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_5323422/53234228188.20250227201044.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="str">
+        <v>니모 헬리오 압력 샤워 NM-HPS-DV 휴대용 간이 캠핑 기본 단일 옵션 1개</v>
+      </c>
+      <c r="B163" t="str">
+        <v/>
+      </c>
+      <c r="C163" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D163" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E163" t="str">
+        <v>니모</v>
+      </c>
+      <c r="F163" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_4984495/49844956894.20240822235947.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="str">
+        <v>니모 NEMO 멜더 해머 NM-AC-MDH 1개</v>
+      </c>
+      <c r="B164" t="str">
+        <v/>
+      </c>
+      <c r="C164" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D164" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E164" t="str">
+        <v>니모</v>
+      </c>
+      <c r="F164" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_5132979/51329796354.20241110185821.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="str">
+        <v>니모 필로 엘리트 럭셔리 베개 여행 배낭여행 캠핑용 풍선 원 사이즈 어비스 Flame</v>
+      </c>
+      <c r="B165" t="str">
+        <v/>
+      </c>
+      <c r="C165" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D165" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E165" t="str">
+        <v>니모</v>
+      </c>
+      <c r="F165" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_5094376/50943763998.20241020183306.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="str">
+        <v>니모 NEMO 텐서 사계절 초경량 보온 수면 패드 레귤러 Regular 72 X 20 X 3 5</v>
+      </c>
+      <c r="B166" t="str">
+        <v/>
+      </c>
+      <c r="C166" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D166" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E166" t="str">
+        <v>니모</v>
+      </c>
+      <c r="F166" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_4736933/47369330017.20240427200236.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="str">
+        <v>니모 Nemo Tempo 남녀 20도35도 합성 침낭 20-Degree Long Men s</v>
+      </c>
+      <c r="B167" t="str">
+        <v/>
+      </c>
+      <c r="C167" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D167" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E167" t="str">
+        <v>니모</v>
+      </c>
+      <c r="F167" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_4744786/47447865633.20240501175547.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="str">
+        <v>니모 필로TM 에어베개 자충베개 캠핑용베개</v>
+      </c>
+      <c r="B168" t="str">
+        <v/>
+      </c>
+      <c r="C168" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D168" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E168" t="str">
+        <v>니모</v>
+      </c>
+      <c r="F168" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_5006415/50064159721.20240830150702.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="str">
+        <v>니모 텐서 극한 조건 수면 패드 Regular Wide 72 x 25 x 3 5 in</v>
+      </c>
+      <c r="B169" t="str">
+        <v/>
+      </c>
+      <c r="C169" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D169" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E169" t="str">
+        <v>니모</v>
+      </c>
+      <c r="F169" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_4587615/45876153966.20240217192109.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="str">
+        <v>니모 헬리오 프레셔 아웃도어 캠핑 차박 간이 이동식 휴대용 샤워기 NM-HELX-BA 1개</v>
+      </c>
+      <c r="B170" t="str">
+        <v/>
+      </c>
+      <c r="C170" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D170" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E170" t="str">
+        <v>니모</v>
+      </c>
+      <c r="F170" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_4890346/48903465941.20240704120550.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="str">
+        <v>니모 NEMO 필로 엘리트 초경량 베개 여행 배낭여행 캠핑용 팽창식 배낭 미드나잇 Midnight</v>
+      </c>
+      <c r="B171" t="str">
+        <v/>
+      </c>
+      <c r="C171" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D171" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E171" t="str">
+        <v>니모</v>
+      </c>
+      <c r="F171" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_4572868/45728687724.20240208203058.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="str">
+        <v>니모 NEMO 필로 베개</v>
+      </c>
+      <c r="B172" t="str">
+        <v/>
+      </c>
+      <c r="C172" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D172" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E172" t="str">
+        <v>니모</v>
+      </c>
+      <c r="F172" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_3955214/39552140068.20230423183935.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="str">
+        <v>니모 NEMO 필로</v>
+      </c>
+      <c r="B173" t="str">
+        <v/>
+      </c>
+      <c r="C173" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D173" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E173" t="str">
+        <v>니모</v>
+      </c>
+      <c r="F173" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_5008577/50085773424.20240917020351.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="str">
+        <v>니모 필로 엘리트 필로우 캠핑 백패킹 베개 488208</v>
+      </c>
+      <c r="B174" t="str">
+        <v/>
+      </c>
+      <c r="C174" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D174" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E174" t="str">
+        <v>니모</v>
+      </c>
+      <c r="F174" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_5221055/52210552822.20250101000911.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="str">
+        <v>니모 NEMO 헬리오 프레셔 샤워 - 펌프샤워기 단품</v>
+      </c>
+      <c r="B175" t="str">
+        <v/>
+      </c>
+      <c r="C175" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D175" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E175" t="str">
+        <v>니모</v>
+      </c>
+      <c r="F175" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_3958458/39584581369.20230425114844.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="str">
+        <v>니모 NEMO 필로 엘리트 럭셔리 베개 여행 배낭여행 캠핑용 팽창 베개 미드나잇 Midnight 1개</v>
+      </c>
+      <c r="B176" t="str">
+        <v/>
+      </c>
+      <c r="C176" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D176" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E176" t="str">
+        <v>니모</v>
+      </c>
+      <c r="F176" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_4615772/46157722302.20240303183612.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="str">
+        <v>NEMO 니모 스위치백 폴리에스테르 레귤러 NM-SWB-R 1개</v>
+      </c>
+      <c r="B177" t="str">
+        <v/>
+      </c>
+      <c r="C177" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D177" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E177" t="str">
+        <v>니모</v>
+      </c>
+      <c r="F177" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_5319476/53194762668.20250224202558.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="str">
+        <v>니모 이퀴프먼트 니모 왜건탑 차고 마시 NM-WGTG-MB 그린 1개</v>
+      </c>
+      <c r="B178" t="str">
+        <v/>
+      </c>
+      <c r="C178" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D178" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E178" t="str">
+        <v>니모</v>
+      </c>
+      <c r="F178" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_5184414/51844142186.20241209185620.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="str">
+        <v>니모 NEMO 필로 럭셔리 베개 여행 배낭여행 캠핑용 팽창 어비스</v>
+      </c>
+      <c r="B179" t="str">
+        <v/>
+      </c>
+      <c r="C179" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D179" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E179" t="str">
+        <v>니모</v>
+      </c>
+      <c r="F179" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_4497991/44979918784.20231231144555.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="str">
+        <v>니모 헬리오폴리스 휴대용 이동식 캠핑 야외 샤워 텐트</v>
+      </c>
+      <c r="B180" t="str">
+        <v/>
+      </c>
+      <c r="C180" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D180" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E180" t="str">
+        <v>니모</v>
+      </c>
+      <c r="F180" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_3512894/35128944516.20221008160027.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="str">
+        <v>니모 필로 베개 캠핑에어베개 백패킹베개 프로스트실트 1개</v>
+      </c>
+      <c r="B181" t="str">
+        <v/>
+      </c>
+      <c r="C181" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D181" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E181" t="str">
+        <v>니모</v>
+      </c>
+      <c r="F181" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_4991446/49914469271.20240822192256.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="str">
+        <v>니모 NEMO Helio 프레셔 휴대용 샤워기 캠핑 백패킹 11 Liter - Dark Verglas 11L 1개</v>
+      </c>
+      <c r="B182" t="str">
+        <v/>
+      </c>
+      <c r="C182" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D182" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E182" t="str">
+        <v>니모</v>
+      </c>
+      <c r="F182" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_4240649/42406491496.20230904101415.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="str">
+        <v>니모 NEMO 필로 럭셔리 베개 여행 배낭여행 캠핑용 팽창 어비스</v>
+      </c>
+      <c r="B183" t="str">
+        <v/>
+      </c>
+      <c r="C183" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D183" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E183" t="str">
+        <v>니모</v>
+      </c>
+      <c r="F183" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_5332009/53320097837.20250303211619.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="str">
+        <v>니모 NEMO 필로 킹 베개 여행 배낭여행 캠핑용 팽창 어비스</v>
+      </c>
+      <c r="B184" t="str">
+        <v/>
+      </c>
+      <c r="C184" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D184" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E184" t="str">
+        <v>니모</v>
+      </c>
+      <c r="F184" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_5314889/53148891033.20250221214535.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="str">
+        <v>니모 니모 NEMO 타프 폴 길이조정용 M 150cm-180cm</v>
+      </c>
+      <c r="B185" t="str">
+        <v/>
+      </c>
+      <c r="C185" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D185" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E185" t="str">
+        <v>니모</v>
+      </c>
+      <c r="F185" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_3570016/35700166111.20221108042902.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="str">
+        <v>니모 NEMO 필로 백패킹 캠핑 베개 일체형 가방 소프트 팽창식 여행용 어비스</v>
+      </c>
+      <c r="B186" t="str">
+        <v/>
+      </c>
+      <c r="C186" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D186" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E186" t="str">
+        <v>니모</v>
+      </c>
+      <c r="F186" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_4465737/44657371024.20231214182113.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="str">
+        <v>니모 NEMO Astro 수면 패드 비절연 일반 Non-insulated Regular 72x20</v>
+      </c>
+      <c r="B187" t="str">
+        <v/>
+      </c>
+      <c r="C187" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D187" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E187" t="str">
+        <v>니모</v>
+      </c>
+      <c r="F187" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_4645788/46457887691.20240316184353.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="str">
+        <v>니모 NEMO 볼텍스 펌프 자루 수면 패드 - 원 사이즈 루멘</v>
+      </c>
+      <c r="B188" t="str">
+        <v/>
+      </c>
+      <c r="C188" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D188" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E188" t="str">
+        <v>니모</v>
+      </c>
+      <c r="F188" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_5101823/51018232163.20241024200706.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="str">
+        <v>니모 NEMO 필로 배낭 캠핑 베개 일체형 가방 소프트 팽창식 여행용 굿나잇 Abyss</v>
+      </c>
+      <c r="B189" t="str">
+        <v/>
+      </c>
+      <c r="C189" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D189" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E189" t="str">
+        <v>니모</v>
+      </c>
+      <c r="F189" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_4536285/45362852821.20240504181820.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="str">
+        <v>니모 NEMO 잠자리 바이크팩 풋프린트 2023 Bikepack 2-person 2023 2 2인용 1개</v>
+      </c>
+      <c r="B190" t="str">
+        <v/>
+      </c>
+      <c r="C190" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D190" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E190" t="str">
+        <v>니모</v>
+      </c>
+      <c r="F190" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_4578029/45780293582.20240212180552.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="str">
+        <v>니모 NEMO 플라이어 셀프 인플레이팅 블루사인 슬리핑 패드 레귤러 와이드 Regular Wide</v>
+      </c>
+      <c r="B191" t="str">
+        <v/>
+      </c>
+      <c r="C191" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D191" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E191" t="str">
+        <v>니모</v>
+      </c>
+      <c r="F191" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_4723924/47239240188.20240422160526.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="str">
+        <v>니모 문라이트 엘리트 캠핑의자</v>
+      </c>
+      <c r="B192">
+        <v>526</v>
+      </c>
+      <c r="C192" t="str">
+        <v>furniture</v>
+      </c>
+      <c r="D192" t="str">
+        <v>chair</v>
+      </c>
+      <c r="E192" t="str">
+        <v>니모</v>
+      </c>
+      <c r="F192" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_4591658/45916588619.20240220163720.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="str">
+        <v>니모 NEMO 디스코 다운 침낭 남성 여성 플러시 15 30도 백팩 옆잠자리용 Mens 30 Reg</v>
+      </c>
+      <c r="B193" t="str">
+        <v/>
+      </c>
+      <c r="C193" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D193" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E193" t="str">
+        <v>니모</v>
+      </c>
+      <c r="F193" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_4636533/46365331648.20240313193750.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="str">
+        <v>니모 네모 필로 베개</v>
+      </c>
+      <c r="B194" t="str">
+        <v/>
+      </c>
+      <c r="C194" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D194" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E194" t="str">
+        <v>니모</v>
+      </c>
+      <c r="F194" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_5271673/52716733766.20250129191107.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="str">
+        <v>니모 NEMO 디스코 다운 침낭 남성 여성 플러시 15 30도 백팩 옆잠자리용 Womens 15 Reg</v>
+      </c>
+      <c r="B195" t="str">
+        <v/>
+      </c>
+      <c r="C195" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D195" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E195" t="str">
+        <v>니모</v>
+      </c>
+      <c r="F195" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_5003380/50033801374.20240829000719.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="str">
+        <v>니모 NEMO 텐서 트레일 초경량 단열 슬리핑 패드 일반 와이드 Regular Wide 72 x 25 x 3 5</v>
+      </c>
+      <c r="B196" t="str">
+        <v/>
+      </c>
+      <c r="C196" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D196" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E196" t="str">
+        <v>니모</v>
+      </c>
+      <c r="F196" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_4631696/46316969895.20240311170649.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="str">
+        <v>니모 NEMO 필로 럭셔리 베개 여행 배낭여행 캠핑용 팽창 어비스 Goodnight</v>
+      </c>
+      <c r="B197" t="str">
+        <v/>
+      </c>
+      <c r="C197" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D197" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E197" t="str">
+        <v>니모</v>
+      </c>
+      <c r="F197" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_5006993/50069930030.20240831011304.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="str">
+        <v>NEMO 니모 이익 업 텐트 오로라 3P 노바 그린 AURORA NM-ARR- NM-ARR-3P-NG</v>
+      </c>
+      <c r="B198" t="str">
+        <v/>
+      </c>
+      <c r="C198" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D198" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E198" t="str">
+        <v>니모</v>
+      </c>
+      <c r="F198" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_4325908/43259080133.20250119004357.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="str">
+        <v>니모 NEMONemo Tempo 남녀 20도35도 합성 침낭 35-Degree Regular Men s</v>
+      </c>
+      <c r="B199" t="str">
+        <v/>
+      </c>
+      <c r="C199" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D199" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E199" t="str">
+        <v>니모</v>
+      </c>
+      <c r="F199" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_4925662/49256627013.20240719210302.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="str">
+        <v>니모 소닉 20 롱</v>
+      </c>
+      <c r="B200">
+        <v>1650</v>
+      </c>
+      <c r="C200" t="str">
+        <v>big4</v>
+      </c>
+      <c r="D200" t="str">
+        <v>sleeping_bag</v>
+      </c>
+      <c r="E200" t="str">
+        <v>니모</v>
+      </c>
+      <c r="F200" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_2415046/24150468525.20200914154137.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="str">
+        <v>니모 필로 엘리트 럭셔리 캠핑베개</v>
+      </c>
+      <c r="B201" t="str">
+        <v/>
+      </c>
+      <c r="C201" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D201" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E201" t="str">
+        <v>니모</v>
+      </c>
+      <c r="F201" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_5116743/51167432323.20241103044740.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="str">
+        <v>니모 가이라인 키트</v>
+      </c>
+      <c r="B202" t="str">
+        <v/>
+      </c>
+      <c r="C202" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D202" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E202" t="str">
+        <v>니모</v>
+      </c>
+      <c r="F202" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_3749440/37494405606.20230414023220.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="str">
+        <v>NEMO 장비 스위치백 폼 수면 패드</v>
+      </c>
+      <c r="B203" t="str">
+        <v/>
+      </c>
+      <c r="C203" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D203" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E203" t="str">
+        <v>니모</v>
+      </c>
+      <c r="F203" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_5015420/50154208863.20240904202755.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="str">
+        <v>NEMO 니모 타프 폴 L 203 길이조절용 - 쉘터및 타프 전용폴</v>
+      </c>
+      <c r="B204" t="str">
+        <v/>
+      </c>
+      <c r="C204" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D204" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E204" t="str">
+        <v>니모</v>
+      </c>
+      <c r="F204" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_3545727/35457277911.20221026123609.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="str">
+        <v>니모 리프 15 하이드로포빅 다운 레귤러 침낭</v>
+      </c>
+      <c r="B205">
+        <v>1080</v>
+      </c>
+      <c r="C205" t="str">
+        <v>big4</v>
+      </c>
+      <c r="D205" t="str">
+        <v>sleeping_bag</v>
+      </c>
+      <c r="E205" t="str">
+        <v>니모</v>
+      </c>
+      <c r="F205" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_3167887/31678879093.20220408194657.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="str">
+        <v>NEMO 잠자리 발자국</v>
+      </c>
+      <c r="B206" t="str">
+        <v/>
+      </c>
+      <c r="C206" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D206" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E206" t="str">
+        <v>니모</v>
+      </c>
+      <c r="F206" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_4539758/45397589814.20240122202338.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="str">
+        <v>NEMO 쿠나이 발자국 2 Person</v>
+      </c>
+      <c r="B207" t="str">
+        <v/>
+      </c>
+      <c r="C207" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D207" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E207" t="str">
+        <v>니모</v>
+      </c>
+      <c r="F207" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_4574097/45740979051.20240209183247.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="str">
+        <v>니모 헬리오 프레셔 샤워 22L</v>
+      </c>
+      <c r="B208" t="str">
+        <v/>
+      </c>
+      <c r="C208" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D208" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E208" t="str">
+        <v>니모</v>
+      </c>
+      <c r="F208" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_3926803/39268033229.20230825233803.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="str">
+        <v>니모 장비 재즈 합성 침낭</v>
+      </c>
+      <c r="B209" t="str">
+        <v/>
+      </c>
+      <c r="C209" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D209" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E209" t="str">
+        <v>니모</v>
+      </c>
+      <c r="F209" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_5314911/53149116819.20250221235824.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="str">
+        <v>니모 빅토리 블랭킷 2P 2개</v>
+      </c>
+      <c r="B210" t="str">
+        <v/>
+      </c>
+      <c r="C210" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D210" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E210" t="str">
+        <v>니모</v>
+      </c>
+      <c r="F210" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_5217675/52176753378.20241229190839.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="str">
+        <v>니모 아톰 2P 풋프린트</v>
+      </c>
+      <c r="B211" t="str">
+        <v/>
+      </c>
+      <c r="C211" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D211" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E211" t="str">
+        <v>니모</v>
+      </c>
+      <c r="F211" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_3349038/33490386851.20240201032052.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="str">
+        <v>NEMO 장비 아스트로 수면 패드 롱 와이드 버치 버드</v>
+      </c>
+      <c r="B212" t="str">
+        <v/>
+      </c>
+      <c r="C212" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D212" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E212" t="str">
+        <v>니모</v>
+      </c>
+      <c r="F212" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_5133151/51331514049.20241111005555.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="str">
+        <v>니모 프론트 포치 2P</v>
+      </c>
+      <c r="B213" t="str">
+        <v/>
+      </c>
+      <c r="C213" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D213" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E213" t="str">
+        <v>니모</v>
+      </c>
+      <c r="F213" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_1461647/14616477883.20180623172538.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="str">
+        <v>니모 헬리오 프레셔 샤워</v>
+      </c>
+      <c r="B214" t="str">
+        <v/>
+      </c>
+      <c r="C214" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D214" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E214" t="str">
+        <v>니모</v>
+      </c>
+      <c r="F214" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_3650945/36509454409.20221214075152.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="str">
+        <v>국내매장품 니모 백팩 가방 밴티지 20L 데이팩 520074</v>
+      </c>
+      <c r="B215" t="str">
+        <v/>
+      </c>
+      <c r="C215" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D215" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E215" t="str">
+        <v>니모</v>
+      </c>
+      <c r="F215" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_4880965/48809656842.20240630163927.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="str">
+        <v>니모 잠자리 자전거 팩 발자국</v>
+      </c>
+      <c r="B216" t="str">
+        <v/>
+      </c>
+      <c r="C216" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D216" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E216" t="str">
+        <v>니모</v>
+      </c>
+      <c r="F216" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_5133098/51330981149.20241110212709.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="str">
+        <v>NEMO 장비 로머 수면 패드 - 와이드 라군</v>
+      </c>
+      <c r="B217" t="str">
+        <v/>
+      </c>
+      <c r="C217" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D217" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E217" t="str">
+        <v>니모</v>
+      </c>
+      <c r="F217" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_5136438/51364382869.20241112224814.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="str">
+        <v>NEMO 메이플라이 OSMO 발자국 3인</v>
+      </c>
+      <c r="B218" t="str">
+        <v/>
+      </c>
+      <c r="C218" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D218" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E218" t="str">
+        <v>니모</v>
+      </c>
+      <c r="F218" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_4720877/47208774863.20240420162321.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="str">
+        <v>Nemo Helio 압력 샤워기 다크 버글라스</v>
+      </c>
+      <c r="B219" t="str">
+        <v/>
+      </c>
+      <c r="C219" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D219" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E219" t="str">
+        <v>니모</v>
+      </c>
+      <c r="F219" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_5038482/50384823610.20240919192651.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="str">
+        <v>NEMO 장비 오로라 고층 건물 발자국</v>
+      </c>
+      <c r="B220" t="str">
+        <v/>
+      </c>
+      <c r="C220" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D220" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E220" t="str">
+        <v>니모</v>
+      </c>
+      <c r="F220" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_5130340/51303408350.20241108213653.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="str">
+        <v>NEMO 니모 리커브 2P NM-RCV-2P-F</v>
+      </c>
+      <c r="B221" t="str">
+        <v/>
+      </c>
+      <c r="C221" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D221" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E221" t="str">
+        <v>니모</v>
+      </c>
+      <c r="F221" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_3633291/36332913185.20240805000238.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="str">
+        <v>NEMO 스위치백 폼 수면 패드 Short 51 x20 Short 51x20</v>
+      </c>
+      <c r="B222" t="str">
+        <v/>
+      </c>
+      <c r="C222" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D222" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E222" t="str">
+        <v>니모</v>
+      </c>
+      <c r="F222" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_5088110/50881101248.20241016213635.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="str">
+        <v>NEMO 장비 추적 침낭 라이너</v>
+      </c>
+      <c r="B223" t="str">
+        <v/>
+      </c>
+      <c r="C223" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D223" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E223" t="str">
+        <v>니모</v>
+      </c>
+      <c r="F223" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_5069055/50690559623.20241005213129.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="str">
+        <v>NEMO 장비 로머 수면 패드 더블 라군</v>
+      </c>
+      <c r="B224" t="str">
+        <v/>
+      </c>
+      <c r="C224" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D224" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E224" t="str">
+        <v>니모</v>
+      </c>
+      <c r="F224" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_4657912/46579126242.20240322180617.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="str">
+        <v>NEMO 퀘이사 3D 경량 수면 패드 단열 레귤러 3D Insulated Regular</v>
+      </c>
+      <c r="B225" t="str">
+        <v/>
+      </c>
+      <c r="C225" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D225" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E225" t="str">
+        <v>니모</v>
+      </c>
+      <c r="F225" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_4750795/47507959033.20240504143046.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="str">
+        <v>니모 와곤탑 4P 풋프린트 2020</v>
+      </c>
+      <c r="B226" t="str">
+        <v/>
+      </c>
+      <c r="C226" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D226" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E226" t="str">
+        <v>니모</v>
+      </c>
+      <c r="F226" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_5325199/53251998549.20250228011102.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="str">
+        <v>니모 헬리오 휴대용 압력 캠프 샤워기</v>
+      </c>
+      <c r="B227" t="str">
+        <v/>
+      </c>
+      <c r="C227" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D227" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E227" t="str">
+        <v>니모</v>
+      </c>
+      <c r="F227" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_5211764/52117642111.20241225230159.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="str">
+        <v>NEMO 텐서 초경량 수면 패드 2022 조용한 지원을 제공하는 캠핑 일반</v>
+      </c>
+      <c r="B228" t="str">
+        <v/>
+      </c>
+      <c r="C228" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D228" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E228" t="str">
+        <v>니모</v>
+      </c>
+      <c r="F228" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_5294208/52942080837.20250211214309.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="str">
+        <v>니모 필로 필로우 캠핑 백패킹 베개 752833</v>
+      </c>
+      <c r="B229" t="str">
+        <v/>
+      </c>
+      <c r="C229" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D229" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E229" t="str">
+        <v>니모</v>
+      </c>
+      <c r="F229" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_5128409/51284099978.20241108001012.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="str">
+        <v>NEMO 니모 헥사라이트 LE 6P NM-HEX-6P-LE</v>
+      </c>
+      <c r="B230" t="str">
+        <v/>
+      </c>
+      <c r="C230" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D230" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E230" t="str">
+        <v>니모</v>
+      </c>
+      <c r="F230" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_2853406/28534069807.20250216170654.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="str">
+        <v>NEMO 니모 섀도 캐스터 165 마쉬 4-6 명 NM-SCT165-MB</v>
+      </c>
+      <c r="B231" t="str">
+        <v/>
+      </c>
+      <c r="C231" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D231" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E231" t="str">
+        <v>니모</v>
+      </c>
+      <c r="F231" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_3959003/39590036180.20230425171806.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="str">
+        <v>니모 장비 필로 킹 베개</v>
+      </c>
+      <c r="B232" t="str">
+        <v/>
+      </c>
+      <c r="C232" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D232" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E232" t="str">
+        <v>니모</v>
+      </c>
+      <c r="F232" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_5341640/53416407545.20250308010215.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="str">
+        <v>NEMO 장비 추적기 수면 라이너</v>
+      </c>
+      <c r="B233" t="str">
+        <v/>
+      </c>
+      <c r="C233" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D233" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E233" t="str">
+        <v>니모</v>
+      </c>
+      <c r="F233" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_5341627/53416278677.20250307234844.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="str">
+        <v>니모 장비 로머 수면 패드</v>
+      </c>
+      <c r="B234" t="str">
+        <v/>
+      </c>
+      <c r="C234" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D234" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E234" t="str">
+        <v>니모</v>
+      </c>
+      <c r="F234" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_5339693/53396930875.20250307011457.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="str">
+        <v>NEMO 장비 단검 텐트 발자국 2 Person</v>
+      </c>
+      <c r="B235" t="str">
+        <v/>
+      </c>
+      <c r="C235" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D235" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E235" t="str">
+        <v>니모</v>
+      </c>
+      <c r="F235" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_5337526/53375266306.20250305175324.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="str">
+        <v>니모조르숏 휴대용베개 여행용베개 캠핑 필로킹 NEMO</v>
+      </c>
+      <c r="B236" t="str">
+        <v/>
+      </c>
+      <c r="C236" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D236" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E236" t="str">
+        <v>니모</v>
+      </c>
+      <c r="F236" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_5335462/53354624954.20250304204909.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="str">
+        <v>NEMO Stargaze 리클라이닝 캠핑 의자 코리앤더 NM-STGRC-CR</v>
+      </c>
+      <c r="B237" t="str">
+        <v/>
+      </c>
+      <c r="C237" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D237" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E237" t="str">
+        <v>니모</v>
+      </c>
+      <c r="F237" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_5332043/53320436556.20250305161223.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="str">
+        <v>니모 장비 필로 럭셔리 베개</v>
+      </c>
+      <c r="B238" t="str">
+        <v/>
+      </c>
+      <c r="C238" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D238" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E238" t="str">
+        <v>니모</v>
+      </c>
+      <c r="F238" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_5332027/53320277935.20250303230057.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="str">
+        <v>니모 장비 소닉 다운 미라 침낭 Long</v>
+      </c>
+      <c r="B239" t="str">
+        <v/>
+      </c>
+      <c r="C239" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D239" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E239" t="str">
+        <v>니모</v>
+      </c>
+      <c r="F239" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_5323438/53234385121.20250226212746.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="str">
+        <v>니모 NEMO 기어팩 멀티 티슈 케이스 6가지</v>
+      </c>
+      <c r="B240" t="str">
+        <v/>
+      </c>
+      <c r="C240" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D240" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E240" t="str">
+        <v>니모</v>
+      </c>
+      <c r="F240" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_3483274/34832748419.20220922133325.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="str">
+        <v>니모 장비 디스코 남녀용 끝없는 약속 다운 침낭</v>
+      </c>
+      <c r="B241" t="str">
+        <v/>
+      </c>
+      <c r="C241" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D241" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E241" t="str">
+        <v>니모</v>
+      </c>
+      <c r="F241" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_5319537/53195375442.20250224205815.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="str">
+        <v>니모 호넷 OSMO 텐트 발자국 2 Person</v>
+      </c>
+      <c r="B242" t="str">
+        <v/>
+      </c>
+      <c r="C242" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D242" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E242" t="str">
+        <v>니모</v>
+      </c>
+      <c r="F242" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_5316543/53165439315.20250223011343.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="str">
+        <v>니모 빅토리 스크린하우스 캠프 쉘터</v>
+      </c>
+      <c r="B243" t="str">
+        <v/>
+      </c>
+      <c r="C243" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D243" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E243" t="str">
+        <v>니모</v>
+      </c>
+      <c r="F243" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_5316541/53165415449.20250223010033.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="str">
+        <v>NEMO 장비 퀘이사 3D 경량 수면 패드 일반72x20 플라즈마</v>
+      </c>
+      <c r="B244" t="str">
+        <v/>
+      </c>
+      <c r="C244" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D244" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E244" t="str">
+        <v>니모</v>
+      </c>
+      <c r="F244" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_4575516/45755164070.20240210162507.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="str">
+        <v>NEMO 니모 아톰 2P 캐니언 NM-ATM2P-CY</v>
+      </c>
+      <c r="B245" t="str">
+        <v/>
+      </c>
+      <c r="C245" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D245" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E245" t="str">
+        <v>니모</v>
+      </c>
+      <c r="F245" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_5289684/52896844880.20250210023232.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="str">
+        <v>Nemo Helio 압력 샤워기 다크 버글라스</v>
+      </c>
+      <c r="B246" t="str">
+        <v/>
+      </c>
+      <c r="C246" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D246" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E246" t="str">
+        <v>니모</v>
+      </c>
+      <c r="F246" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_5289682/52896829234.20250208233356.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="str">
+        <v>니모 장비 필로 백패킹 캠핑 베개 원 사이즈 어비스</v>
+      </c>
+      <c r="B247" t="str">
+        <v/>
+      </c>
+      <c r="C247" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D247" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E247" t="str">
+        <v>니모</v>
+      </c>
+      <c r="F247" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_5121293/51212934413.20241104220623.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="str">
+        <v>NEMO 필로 엘리트 럭셔리 베개 여행 배낭여행 캠핑용 팽창 미드나잇</v>
+      </c>
+      <c r="B248" t="str">
+        <v/>
+      </c>
+      <c r="C248" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D248" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E248" t="str">
+        <v>니모</v>
+      </c>
+      <c r="F248" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_5326904/53269047393.20250228203034.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="str">
+        <v>니모 필로 엘리트 초경량 배낭용 베개 1개</v>
+      </c>
+      <c r="B249" t="str">
+        <v/>
+      </c>
+      <c r="C249" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D249" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E249" t="str">
+        <v>니모</v>
+      </c>
+      <c r="F249" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_4230274/42302740083.20230829171732.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="str">
+        <v>NEMO 트레이서 침낭 라이너</v>
+      </c>
+      <c r="B250" t="str">
+        <v/>
+      </c>
+      <c r="C250" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D250" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E250" t="str">
+        <v>니모</v>
+      </c>
+      <c r="F250" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_4576802/45768021657.20240211173050.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="str">
+        <v>NEMO 장비 필로 엘리트 초경량 배낭여행 캠핑 베개 원 사이즈 망고 유자</v>
+      </c>
+      <c r="B251" t="str">
+        <v/>
+      </c>
+      <c r="C251" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D251" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E251" t="str">
+        <v>니모</v>
+      </c>
+      <c r="F251" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_4722617/47226175399.20240421212003.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="str">
+        <v>니모 텐서 절연 레귤러 와이드 싱글 메리 1개 NM-TSI2-RW</v>
+      </c>
+      <c r="B252" t="str">
+        <v/>
+      </c>
+      <c r="C252" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D252" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E252" t="str">
+        <v>니모</v>
+      </c>
+      <c r="F252" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_5219374/52193748976.20241231000754.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="str">
+        <v>NEMO 장비 필로 배낭여행 캠핑 베개 원 사이즈 습지보리얼</v>
+      </c>
+      <c r="B253" t="str">
+        <v/>
+      </c>
+      <c r="C253" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D253" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E253" t="str">
+        <v>니모</v>
+      </c>
+      <c r="F253" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_5343303/53433036832.20250308232337.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="str">
+        <v>니모 장비 승리 스크린하우스 캠프 쉘터 - 원 사이즈 안개스모키 올리브</v>
+      </c>
+      <c r="B254" t="str">
+        <v/>
+      </c>
+      <c r="C254" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D254" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E254" t="str">
+        <v>니모</v>
+      </c>
+      <c r="F254" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_5138765/51387653110.20241114010625.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="str">
+        <v>니모 헬리오 프레셔 NM-HPS-DV 캠핑 샤워기 휴대용 해수욕장</v>
+      </c>
+      <c r="B255" t="str">
+        <v/>
+      </c>
+      <c r="C255" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D255" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E255" t="str">
+        <v>니모</v>
+      </c>
+      <c r="F255" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_4958013/49580139920.20240803125518.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="str">
+        <v>NEMO 필로 킹 베개 여행 배낭여행 캠핑용 팽창 미드나잇 Midnight Midnight 1개</v>
+      </c>
+      <c r="B256" t="str">
+        <v/>
+      </c>
+      <c r="C256" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D256" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E256" t="str">
+        <v>니모</v>
+      </c>
+      <c r="F256" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_4488194/44881942186.20231226142721.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="str">
+        <v>니모 장비 디스코 남녀용 끝없는 약속 다운 침낭</v>
+      </c>
+      <c r="B257" t="str">
+        <v/>
+      </c>
+      <c r="C257" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D257" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E257" t="str">
+        <v>니모</v>
+      </c>
+      <c r="F257" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_5142654/51426547537.20241116202516.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="str">
+        <v>니모 장비 스타게이즈 리클라이닝 캠프 의자 원 사이즈 펠리컨 Horizon</v>
+      </c>
+      <c r="B258" t="str">
+        <v/>
+      </c>
+      <c r="C258" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D258" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E258" t="str">
+        <v>니모</v>
+      </c>
+      <c r="F258" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_5289597/52895971447.20250208194630.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="str">
+        <v>캠핑 베개 배게 차박 니모 장비 호넷 엘리트 오스모 1P NMHNEOS1P</v>
+      </c>
+      <c r="B259" t="str">
+        <v/>
+      </c>
+      <c r="C259" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D259" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E259" t="str">
+        <v>니모</v>
+      </c>
+      <c r="F259" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_5216365/52163654327.20241230010209.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="str">
+        <v>NEMO Equipment 캠핑용 경량 폼 시트 NM-CPR-WS 휴대용</v>
+      </c>
+      <c r="B260" t="str">
+        <v/>
+      </c>
+      <c r="C260" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D260" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E260" t="str">
+        <v>니모</v>
+      </c>
+      <c r="F260" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_5213513/52135138564.20241226235109.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="str">
+        <v>NEMO 승리 스크린하우스 캠프 쉘터 - 원 사이즈 안개 스모키 올리브</v>
+      </c>
+      <c r="B261" t="str">
+        <v/>
+      </c>
+      <c r="C261" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D261" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E261" t="str">
+        <v>니모</v>
+      </c>
+      <c r="F261" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_5271758/52717584279.20250129224350.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="str">
+        <v>니모 필로 럭셔리 캠핑베개 백패킹베개 1개</v>
+      </c>
+      <c r="B262" t="str">
+        <v/>
+      </c>
+      <c r="C262" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D262" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E262" t="str">
+        <v>니모</v>
+      </c>
+      <c r="F262" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_5034120/50341208114.20240915173618.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="str">
+        <v>NEMO 니모 스위치백 레귤러 NM-SWB-R</v>
+      </c>
+      <c r="B263" t="str">
+        <v/>
+      </c>
+      <c r="C263" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D263" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E263" t="str">
+        <v>니모</v>
+      </c>
+      <c r="F263" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_3369986/33699865653.20250127084002.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="str">
+        <v>NEMO 니모 로마 더블 NM-RMR2-DB</v>
+      </c>
+      <c r="B264" t="str">
+        <v/>
+      </c>
+      <c r="C264" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D264" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E264" t="str">
+        <v>니모</v>
+      </c>
+      <c r="F264" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_2855040/28550402053.20220301010359.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="str">
+        <v>NEMO 니모 타니 오즈모 2P NM-TNOS-2P</v>
+      </c>
+      <c r="B265" t="str">
+        <v/>
+      </c>
+      <c r="C265" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D265" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E265" t="str">
+        <v>니모</v>
+      </c>
+      <c r="F265" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_4573900/45739005853.20250127053020.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="str">
+        <v>NEMO 니모 아톰 오즈모 1P 버티버드 NM-ATMOS-1P-BB</v>
+      </c>
+      <c r="B266" t="str">
+        <v/>
+      </c>
+      <c r="C266" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D266" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E266" t="str">
+        <v>니모</v>
+      </c>
+      <c r="F266" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_4356118/43561180862.20240514124113.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="str">
+        <v>NEMO 니모 헬리오 프레셔 샤워 NM-HPS-DV</v>
+      </c>
+      <c r="B267" t="str">
+        <v/>
+      </c>
+      <c r="C267" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D267" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E267" t="str">
+        <v>니모</v>
+      </c>
+      <c r="F267" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_3928801/39288018491.20231029043834.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="str">
+        <v>NEMO 니모 스타 게이즈 리클라이너 럭셔리 트와일라잇 NM-STGLX-BTL</v>
+      </c>
+      <c r="B268" t="str">
+        <v/>
+      </c>
+      <c r="C268" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D268" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E268" t="str">
+        <v>니모</v>
+      </c>
+      <c r="F268" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_3123615/31236153716.20240330055545.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="str">
+        <v>니모 헬리오 프레셔 샤워 정식수입품</v>
+      </c>
+      <c r="B269" t="str">
+        <v/>
+      </c>
+      <c r="C269" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D269" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E269" t="str">
+        <v>니모</v>
+      </c>
+      <c r="F269" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_4805994/48059946704.20240530082922.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="str">
+        <v>니모 빅토리 스크린하우스 캠프 쉘터</v>
+      </c>
+      <c r="B270" t="str">
+        <v/>
+      </c>
+      <c r="C270" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D270" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E270" t="str">
+        <v>니모</v>
+      </c>
+      <c r="F270" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_4752608/47526081189.20240505191818.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="str">
+        <v>니모 빅토리 블랭킷</v>
+      </c>
+      <c r="B271" t="str">
+        <v/>
+      </c>
+      <c r="C271" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D271" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E271" t="str">
+        <v>니모</v>
+      </c>
+      <c r="F271" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_4295342/42953421449.20230930210013.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="str">
+        <v>니모 NEMO 기어팩 엑스캐디 팩 LG Short Long</v>
+      </c>
+      <c r="B272" t="str">
+        <v/>
+      </c>
+      <c r="C272" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D272" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E272" t="str">
+        <v>니모</v>
+      </c>
+      <c r="F272" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_3481097/34810971844.20220921115219.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="str">
+        <v>NEMO 니모 호넷 스톰 2P 그린 NM-HNTST-2P</v>
+      </c>
+      <c r="B273" t="str">
+        <v/>
+      </c>
+      <c r="C273" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D273" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E273" t="str">
+        <v>니모</v>
+      </c>
+      <c r="F273" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_3548213/35482137019.20241224010604.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="str">
+        <v>NEMO Helio Pressure 샤워기 22L 물백 수동 발펌프 휴대용</v>
+      </c>
+      <c r="B274" t="str">
+        <v/>
+      </c>
+      <c r="C274" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D274" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E274" t="str">
+        <v>니모</v>
+      </c>
+      <c r="F274" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_4627432/46274323104.20240309211336.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="str">
+        <v>NEMO 에퀴프먼트리프 30 남 아웃도어 침낭 캠핑 트레킹 등산 23 구미판</v>
+      </c>
+      <c r="B275" t="str">
+        <v/>
+      </c>
+      <c r="C275" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D275" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E275" t="str">
+        <v>니모</v>
+      </c>
+      <c r="F275" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_5289699/52896990045.20250209005247.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="str">
+        <v>NEMO 필로 킹 베개 여행 배낭여행 캠핑용 팽창 미드나잇 Abyss Abyss 1개</v>
+      </c>
+      <c r="B276" t="str">
+        <v/>
+      </c>
+      <c r="C276" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D276" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E276" t="str">
+        <v>니모</v>
+      </c>
+      <c r="F276" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_4630122/46301220031.20240310172752.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="str">
+        <v>니모 필로 엘리트 캠핑 베개 백패킹 휴대용 초경량 야외용 배낭용</v>
+      </c>
+      <c r="B277" t="str">
+        <v/>
+      </c>
+      <c r="C277" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D277" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E277" t="str">
+        <v>니모</v>
+      </c>
+      <c r="F277" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_3909758/39097582953.20230401210855.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="str">
+        <v>니모 이퀵먼트 오로라 하이라이즈 4P NM-ARH-4P</v>
+      </c>
+      <c r="B278" t="str">
+        <v/>
+      </c>
+      <c r="C278" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D278" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E278" t="str">
+        <v>니모</v>
+      </c>
+      <c r="F278" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_3974863/39748638078.20241116042051.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="str">
+        <v>NEMO 필로 럭셔리 베개 여행 배낭여행 캠핑용 팽창 굿나잇</v>
+      </c>
+      <c r="B279" t="str">
+        <v/>
+      </c>
+      <c r="C279" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D279" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E279" t="str">
+        <v>니모</v>
+      </c>
+      <c r="F279" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_4567881/45678813484.20240206162323.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="str">
+        <v>텐트 비박 캠핑 오토캠핑 NEMO 장비 오로라 하이라이즈 3 시즌 가족 자동차</v>
+      </c>
+      <c r="B280" t="str">
+        <v/>
+      </c>
+      <c r="C280" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D280" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E280" t="str">
+        <v>니모</v>
+      </c>
+      <c r="F280" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_5123146/51231460163.20241105203027.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="str">
+        <v>NEMO 필로 백패킹 캠핑 베개 일체형 가방 소프트 팽창식 여행 프로스트 실트</v>
+      </c>
+      <c r="B281" t="str">
+        <v/>
+      </c>
+      <c r="C281" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D281" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E281" t="str">
+        <v>니모</v>
+      </c>
+      <c r="F281" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_4761011/47610114165.20240509181103.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="str">
+        <v>NEMO Fillo 럭셔리 베개 여행 배낭여행 캠핑 심연을 위한 공기 주입식</v>
+      </c>
+      <c r="B282" t="str">
+        <v/>
+      </c>
+      <c r="C282" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D282" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E282" t="str">
+        <v>니모</v>
+      </c>
+      <c r="F282" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_4551271/45512716558.20240716035415.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="str">
+        <v>NEMO Helio Pressure Shower 샤워기 11L 발펌프 수동 물백 휴대용 1개</v>
+      </c>
+      <c r="B283" t="str">
+        <v/>
+      </c>
+      <c r="C283" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D283" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E283" t="str">
+        <v>니모</v>
+      </c>
+      <c r="F283" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_4628763/46287636284.20240309170025.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="str">
+        <v>니모 소닉 20 레귤러</v>
+      </c>
+      <c r="B284">
+        <v>1590</v>
+      </c>
+      <c r="C284" t="str">
+        <v>big4</v>
+      </c>
+      <c r="D284" t="str">
+        <v>sleeping_bag</v>
+      </c>
+      <c r="E284" t="str">
+        <v>니모</v>
+      </c>
+      <c r="F284" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_2415013/24150132524.20200914155209.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="str">
+        <v>니모 트레이서 레귤러 침낭라이너</v>
+      </c>
+      <c r="B285">
+        <v>234</v>
+      </c>
+      <c r="C285" t="str">
+        <v>big4</v>
+      </c>
+      <c r="D285" t="str">
+        <v>sleeping_bag</v>
+      </c>
+      <c r="E285" t="str">
+        <v>니모</v>
+      </c>
+      <c r="F285" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_4436960/44369605618.20231212121005.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="str">
+        <v>니모 니모 다이거 오스모 3P 백패킹텐트</v>
+      </c>
+      <c r="B286" t="str">
+        <v/>
+      </c>
+      <c r="C286" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D286" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E286" t="str">
+        <v>니모</v>
+      </c>
+      <c r="F286" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_4603799/46037993255.20240702002209.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="str">
+        <v>니모 맬더 해머</v>
+      </c>
+      <c r="B287" t="str">
+        <v/>
+      </c>
+      <c r="C287" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D287" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E287" t="str">
+        <v>니모</v>
+      </c>
+      <c r="F287" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_3864017/38640179892.20241026101014.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="str">
+        <v>NEMO 필로 엘리트 럭셔리 베개 여행 배낭여행 캠핑용 팽창 미드나잇 Midnight Midnight</v>
+      </c>
+      <c r="B288" t="str">
+        <v/>
+      </c>
+      <c r="C288" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D288" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E288" t="str">
+        <v>니모</v>
+      </c>
+      <c r="F288" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_4892464/48924648683.20240704231428.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="str">
+        <v>Nemo Fillo Backpacking Camping Pillow 2023</v>
+      </c>
+      <c r="B289" t="str">
+        <v/>
+      </c>
+      <c r="C289" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D289" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E289" t="str">
+        <v>니모</v>
+      </c>
+      <c r="F289" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_4658237/46582372086.20240322210708.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="str">
+        <v>Nemo Fillo Luxury</v>
+      </c>
+      <c r="B290" t="str">
+        <v/>
+      </c>
+      <c r="C290" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D290" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E290" t="str">
+        <v>니모</v>
+      </c>
+      <c r="F290" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_4600153/46001533286.20240224193307.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="str">
+        <v>Nemo Fillo</v>
+      </c>
+      <c r="B291" t="str">
+        <v/>
+      </c>
+      <c r="C291" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D291" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E291" t="str">
+        <v>니모</v>
+      </c>
+      <c r="F291" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_4665230/46652309134.20240326195445.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="str">
+        <v>NEMO 필로 엘리트 초경량 베개 여행 배낭여행 캠핑용 팽창식 배낭베개 허클베리</v>
+      </c>
+      <c r="B292" t="str">
+        <v/>
+      </c>
+      <c r="C292" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D292" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E292" t="str">
+        <v>니모</v>
+      </c>
+      <c r="F292" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_5321538/53215380210.20250226003317.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="str">
+        <v>네모 Nemo Helio 압력 샤워기 다크 버글라스</v>
+      </c>
+      <c r="B293" t="str">
+        <v/>
+      </c>
+      <c r="C293" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D293" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E293" t="str">
+        <v>니모</v>
+      </c>
+      <c r="F293" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_4610533/46105331857.20250127161305.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="str">
+        <v>NEMO Equipment Fillo Elite Field Camp Pillow 초경량 캠핑 백패킹 베개</v>
+      </c>
+      <c r="B294" t="str">
+        <v/>
+      </c>
+      <c r="C294" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D294" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E294" t="str">
+        <v>니모</v>
+      </c>
+      <c r="F294" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_5141756/51417560383.20241115214030.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="str">
+        <v>니모 헬리오 Nemo Helio 캠핑용 샤워기 압력 샤워포터블 11리터 - 다크아이스 11-22L</v>
+      </c>
+      <c r="B295" t="str">
+        <v/>
+      </c>
+      <c r="C295" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D295" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E295" t="str">
+        <v>니모</v>
+      </c>
+      <c r="F295" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_5219377/52193774510.20250101083516.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="str">
+        <v>NEMO 니모 타프 폴 S 130 길이조절용 - 쉘터및 타프 전용폴</v>
+      </c>
+      <c r="B296" t="str">
+        <v/>
+      </c>
+      <c r="C296" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D296" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E296" t="str">
+        <v>니모</v>
+      </c>
+      <c r="F296" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_2577608/25776088092.20221215173030.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="str">
+        <v>NEMO 힐리오 휴대용 압력 노지 캠핑 샤워기 22L 미국 고급 스프레이 호스 풋 펌프 차박 설거지 세척</v>
+      </c>
+      <c r="B297" t="str">
+        <v/>
+      </c>
+      <c r="C297" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D297" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E297" t="str">
+        <v>니모</v>
+      </c>
+      <c r="F297" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_5101936/51019365305.20241025002147.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="str">
+        <v>NEMO 니모 타프 폴 M 150 길이조절용 - 쉘터및 타프 전용폴</v>
+      </c>
+      <c r="B298" t="str">
+        <v/>
+      </c>
+      <c r="C298" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D298" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E298" t="str">
+        <v>니모</v>
+      </c>
+      <c r="F298" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_3170179/31701795787.20220410082224.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="str">
+        <v>NEMO 힐리오 휴대용 압력 노지 캠핑 샤워기 11L 미국 고급 스프레이 호스 풋 펌프 차박 설거지 세척</v>
+      </c>
+      <c r="B299" t="str">
+        <v/>
+      </c>
+      <c r="C299" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D299" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E299" t="str">
+        <v>니모</v>
+      </c>
+      <c r="F299" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_5105193/51051938297.20241027003058.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="str">
+        <v>니모 모키 3p 포프린트 이너 라이너</v>
+      </c>
+      <c r="B300" t="str">
+        <v/>
+      </c>
+      <c r="C300" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D300" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E300" t="str">
+        <v>니모</v>
+      </c>
+      <c r="F300" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_3169493/31694934572.20220409200914.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="str">
+        <v>니모 스윕 스테이크 6개 세트 텐트펙 경량펙</v>
+      </c>
+      <c r="B301" t="str">
+        <v/>
+      </c>
+      <c r="C301" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D301" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E301" t="str">
+        <v>니모</v>
+      </c>
+      <c r="F301" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_5077613/50776137746.20241013012132.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="str">
+        <v>캠핑 베개 여행 니모 필로 배낭 베개소프트풍선 여행용 베개와 통합형 가방 원 사이즈 어비스 Frost Silt</v>
+      </c>
+      <c r="B302" t="str">
+        <v/>
+      </c>
+      <c r="C302" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D302" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E302" t="str">
+        <v>니모</v>
+      </c>
+      <c r="F302" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_5174149/51741490941.20241204001803.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="str">
+        <v>니모 벅아웃 12X12 그린</v>
+      </c>
+      <c r="B303">
+        <v>3000</v>
+      </c>
+      <c r="C303" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D303" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E303" t="str">
+        <v>니모</v>
+      </c>
+      <c r="F303" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_5337327/53373278676.20250305152415.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="str">
+        <v>니모 NEMO 와곤탑 4P 풋프린트 2020</v>
+      </c>
+      <c r="B304" t="str">
+        <v/>
+      </c>
+      <c r="C304" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D304" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E304" t="str">
+        <v>니모</v>
+      </c>
+      <c r="F304" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_4577812/45778126010.20240212144010.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="str">
+        <v>니모 문라이트 엘리트 필드 체어</v>
+      </c>
+      <c r="B305">
+        <v>617</v>
+      </c>
+      <c r="C305" t="str">
+        <v>furniture</v>
+      </c>
+      <c r="D305" t="str">
+        <v>chair</v>
+      </c>
+      <c r="E305" t="str">
+        <v>니모</v>
+      </c>
+      <c r="F305" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_4886741/48867412619.20240702162335.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="str">
+        <v>니모 스타게이즈 리클라이너 럭셔리 캠핑의자</v>
+      </c>
+      <c r="B306" t="str">
+        <v/>
+      </c>
+      <c r="C306" t="str">
+        <v>furniture</v>
+      </c>
+      <c r="D306" t="str">
+        <v>chair</v>
+      </c>
+      <c r="E306" t="str">
+        <v>니모</v>
+      </c>
+      <c r="F306" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_2669010/26690103003.20220518092200.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="str">
+        <v>니모 에어핀 스테이크 2개 1세트 - 경량펙 텐트펙</v>
+      </c>
+      <c r="B307" t="str">
+        <v/>
+      </c>
+      <c r="C307" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D307" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E307" t="str">
+        <v>니모</v>
+      </c>
+      <c r="F307" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_3568827/35688272859.20221107112029.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="str">
+        <v>니모 NEMO 아톰 풋프린트 1P</v>
+      </c>
+      <c r="B308" t="str">
+        <v/>
+      </c>
+      <c r="C308" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D308" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E308" t="str">
+        <v>니모</v>
+      </c>
+      <c r="F308" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_4035132/40351323571.20230601174935.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="str">
+        <v>니모 카유 15 레귤러 침낭</v>
+      </c>
+      <c r="B309">
+        <v>975</v>
+      </c>
+      <c r="C309" t="str">
+        <v>big4</v>
+      </c>
+      <c r="D309" t="str">
+        <v>sleeping_bag</v>
+      </c>
+      <c r="E309" t="str">
+        <v>니모</v>
+      </c>
+      <c r="F309" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_2693594/26935941527.20210427122521.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="str">
+        <v>니모 카유 15 롱 침낭</v>
+      </c>
+      <c r="B310">
+        <v>1000</v>
+      </c>
+      <c r="C310" t="str">
+        <v>big4</v>
+      </c>
+      <c r="D310" t="str">
+        <v>sleeping_bag</v>
+      </c>
+      <c r="E310" t="str">
+        <v>니모</v>
+      </c>
+      <c r="F310" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_2693614/26936141523.20210427123839.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="str">
+        <v>니모 에어핀 스테이크 4개 세트 텐트펙 경량펙 29589579</v>
+      </c>
+      <c r="B311" t="str">
+        <v/>
+      </c>
+      <c r="C311" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D311" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E311" t="str">
+        <v>니모</v>
+      </c>
+      <c r="F311" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_2580214/25802148418.20240305004427.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="str">
+        <v>니모 스칼라 필드 타프&amp;쉘터</v>
+      </c>
+      <c r="B312">
+        <v>625</v>
+      </c>
+      <c r="C312" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D312" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E312" t="str">
+        <v>니모</v>
+      </c>
+      <c r="F312" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_3185744/31857448235.20220416124453.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="str">
+        <v>니모 타프 폴 길이 조절용 L 203</v>
+      </c>
+      <c r="B313" t="str">
+        <v/>
+      </c>
+      <c r="C313" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D313" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E313" t="str">
+        <v>니모</v>
+      </c>
+      <c r="F313" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_4791583/47915838413.20240522222757.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="str">
+        <v>니모 스윕 스테이크 6개 1세트 - 경량펙 텐트펙</v>
+      </c>
+      <c r="B314" t="str">
+        <v/>
+      </c>
+      <c r="C314" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D314" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E314" t="str">
+        <v>니모</v>
+      </c>
+      <c r="F314" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_3622121/36221211978.20221201120623.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="str">
+        <v>니모 제블린 스테이크 텐트 타프펙 32934743</v>
+      </c>
+      <c r="B315" t="str">
+        <v/>
+      </c>
+      <c r="C315" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D315" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E315" t="str">
+        <v>니모</v>
+      </c>
+      <c r="F315" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_3872800/38728003838.20230317221203.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="str">
+        <v>NEMO 니모 테트라포드 텐트 - 해먹텐트</v>
+      </c>
+      <c r="B316" t="str">
+        <v/>
+      </c>
+      <c r="C316" t="str">
+        <v>furniture</v>
+      </c>
+      <c r="D316" t="str">
+        <v>furniture</v>
+      </c>
+      <c r="E316" t="str">
+        <v>니모</v>
+      </c>
+      <c r="F316" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_4293848/42938485260.20230929201343.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="str">
+        <v>니모 호넷 엘리트 오스모 2P 백패킹텐트</v>
+      </c>
+      <c r="B317" t="str">
+        <v/>
+      </c>
+      <c r="C317" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D317" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E317" t="str">
+        <v>니모</v>
+      </c>
+      <c r="F317" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_4704352/47043526767.20240413193029.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="str">
+        <v>니모 NEMO 드래곤fly 3P 풋프린트</v>
+      </c>
+      <c r="B318" t="str">
+        <v/>
+      </c>
+      <c r="C318" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D318" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E318" t="str">
+        <v>니모</v>
+      </c>
+      <c r="F318" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_5011315/50113156921.20240902205439.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="str">
+        <v>니모 NIMO 맬더해머 토르해머 파운딩해머 텐트망치</v>
+      </c>
+      <c r="B319" t="str">
+        <v/>
+      </c>
+      <c r="C319" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D319" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E319" t="str">
+        <v>니모</v>
+      </c>
+      <c r="F319" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_4432797/44327975865.20231130074715.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="str">
+        <v>니모 에어핀 스테이크 4개 세트</v>
+      </c>
+      <c r="B320" t="str">
+        <v/>
+      </c>
+      <c r="C320" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D320" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E320" t="str">
+        <v>니모</v>
+      </c>
+      <c r="F320" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_3810177/38101774607.20230219192647.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="str">
+        <v>니모 NEMO 타프 폴 길이조정용 L 203cm-251cm</v>
+      </c>
+      <c r="B321" t="str">
+        <v/>
+      </c>
+      <c r="C321" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D321" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E321" t="str">
+        <v>니모</v>
+      </c>
+      <c r="F321" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_3570522/35705222996.20221108093219.jpg?type=f640</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F161"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F321"/>
   </ignoredErrors>
 </worksheet>
 </file>